--- a/時間（じかん）.xlsx
+++ b/時間（じかん）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0C8A04-E0CD-4D9F-AA44-06DEBAD91456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A179ED6-D87D-4254-9A69-FF63A90A09A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="612" windowWidth="11652" windowHeight="11604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2400" yWindow="0" windowWidth="17280" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="339">
   <si>
     <t>明日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,31 +445,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>现</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>在）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1239,10 +1214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>かに</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6.22-7.22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1610,12 +1581,135 @@
     <t>せんしゅうまつ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>かにざ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ときどき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>在）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有时）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ときに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明後日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あさって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この頃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>このごろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这些天来，近来）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頃｜ころ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しばらく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（一会儿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1704,6 +1798,41 @@
       <name val="PingFangSC-Medium"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1725,7 +1854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1744,6 +1873,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2024,10 +2157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2040,16 +2173,16 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18">
       <c r="J1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="18">
@@ -2069,31 +2202,31 @@
       <c r="H2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="12" t="s">
         <v>64</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18">
       <c r="A3" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="H3" t="s">
         <v>67</v>
@@ -2113,10 +2246,10 @@
     </row>
     <row r="4" spans="1:16" ht="18">
       <c r="A4" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>44</v>
@@ -2128,10 +2261,10 @@
         <v>84</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>32</v>
@@ -2157,16 +2290,16 @@
         <v>83</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="N5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="18">
@@ -2177,28 +2310,28 @@
         <v>78</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="J6" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="N6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="18">
@@ -2215,10 +2348,13 @@
         <v>42</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>69</v>
+        <v>91</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="18">
@@ -2229,22 +2365,22 @@
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>58</v>
+      <c r="J8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18">
@@ -2263,58 +2399,55 @@
       <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>141</v>
+      <c r="J9" t="s">
+        <v>57</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18">
       <c r="A10" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="D10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>172</v>
+        <v>134</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="18">
       <c r="A11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>61</v>
@@ -2322,11 +2455,11 @@
       <c r="G11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>170</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>34</v>
@@ -2335,7 +2468,7 @@
         <v>35</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="18">
@@ -2352,36 +2485,36 @@
         <v>46</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="N12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="18">
       <c r="B13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="F13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>36</v>
@@ -2390,7 +2523,7 @@
         <v>37</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="18">
@@ -2408,22 +2541,22 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="N14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="18">
@@ -2435,25 +2568,25 @@
       </c>
       <c r="D15" s="1"/>
       <c r="F15" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>246</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="18">
@@ -2474,375 +2607,428 @@
         <v>72</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="18">
       <c r="A17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="J17" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="N17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="18">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>330</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>331</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>336</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>60</v>
+        <v>337</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="N18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="18">
       <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="18">
+      <c r="A20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="J20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="18">
-      <c r="A20" t="s">
+      <c r="L20" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="18">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="O20" s="1" t="s">
+      <c r="J21" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="18">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="18">
       <c r="A22" s="1" t="s">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>239</v>
+        <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="N22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="18">
       <c r="A23" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="J23" t="s">
-        <v>51</v>
+        <v>238</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="O23" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="P23" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="18">
       <c r="A24" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" t="s">
-        <v>50</v>
+        <v>235</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="N24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="18">
       <c r="A25" s="1" t="s">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>213</v>
+        <v>236</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="N25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="18">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J26" t="s">
-        <v>76</v>
-      </c>
-      <c r="K26" t="s">
-        <v>75</v>
+        <v>233</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="N26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="18">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>251</v>
+        <v>86</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="L27" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N27" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="18">
       <c r="A28" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>73</v>
+        <v>25</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>328</v>
       </c>
       <c r="N28" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="O28" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="O28" s="9" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="18">
       <c r="A29" s="1" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>243</v>
+        <v>18</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="18">
       <c r="A30" s="1" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
-      </c>
-      <c r="J30" t="s">
-        <v>89</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="18">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>64</v>
+        <v>118</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="18">
       <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="18">
+      <c r="A33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J32" s="9" t="s">
+      <c r="J33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="16.2">
+      <c r="J34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.6">
+      <c r="J35" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="K35" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="K32" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="L32" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="33" spans="10:11" ht="18">
-      <c r="J33" s="1" t="s">
+    </row>
+    <row r="36" spans="1:13" ht="18">
+      <c r="J36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="10:11" ht="18">
-      <c r="J34" s="1" t="s">
+    <row r="37" spans="1:13" ht="18">
+      <c r="J37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="10:11" ht="18">
-      <c r="J35" s="1" t="s">
+    </row>
+    <row r="38" spans="1:13" ht="18">
+      <c r="J38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="10:11" ht="18">
-      <c r="J36" s="1" t="s">
+    </row>
+    <row r="39" spans="1:13" ht="18">
+      <c r="J39" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="37" spans="10:11" ht="18">
-      <c r="J37" s="1" t="s">
+    </row>
+    <row r="40" spans="1:13" ht="18">
+      <c r="J40" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="18">
+      <c r="J41" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="38" spans="10:11" ht="18">
-      <c r="J38" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>320</v>
+      <c r="L41" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="18">
+      <c r="J42" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2856,67 +3042,68 @@
   <dimension ref="A2:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="2" spans="1:9" ht="18">
       <c r="A2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="H2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18">
       <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18">
       <c r="A4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>200</v>
-      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="18">
       <c r="A5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2930,7 +3117,7 @@
   <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2946,34 +3133,34 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18">
       <c r="D3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18">
       <c r="D4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18">
       <c r="A5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="C5" s="5">
         <v>11293</v>
@@ -2981,48 +3168,48 @@
     </row>
     <row r="6" spans="1:5" ht="18">
       <c r="A6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18">
       <c r="A7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18">
       <c r="A8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
       <c r="A9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" t="s">
         <v>231</v>
-      </c>
-      <c r="C9" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
       <c r="A10" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" t="s">
         <v>312</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C10" t="s">
-        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -3036,28 +3223,31 @@
   <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="18">
       <c r="A2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>204</v>
-      </c>
-      <c r="C2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3078,18 +3268,18 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18">
       <c r="A2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18">
       <c r="A3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3103,7 +3293,7 @@
   <dimension ref="A2:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3115,136 +3305,136 @@
   <sheetData>
     <row r="2" spans="1:8" ht="18">
       <c r="A2" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18">
       <c r="A3" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18">
       <c r="A5" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18">
       <c r="A6" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="F6" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18">
       <c r="A7" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="F7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18">
       <c r="A8" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/時間（じかん）.xlsx
+++ b/時間（じかん）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A179ED6-D87D-4254-9A69-FF63A90A09A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBF5BE0-0444-4DAF-BBFA-B037E42B97D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2400" yWindow="0" windowWidth="17280" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="345">
   <si>
     <t>明日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1704,12 +1704,74 @@
     <t>（一会儿）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>偶に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たまに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>偶尔）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つねに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>经常）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1833,6 +1895,14 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1854,7 +1924,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1877,6 +1947,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2157,10 +2229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2715,6 +2787,9 @@
       <c r="K21" s="1" t="s">
         <v>308</v>
       </c>
+      <c r="L21" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="N21" s="1" t="s">
         <v>182</v>
       </c>
@@ -2772,11 +2847,14 @@
       <c r="B24" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="J24" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>52</v>
+      <c r="J24" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>341</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>127</v>
@@ -2795,11 +2873,11 @@
       <c r="B25" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J25" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>50</v>
+      <c r="J25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>142</v>
@@ -2816,10 +2894,10 @@
         <v>233</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>212</v>
+        <v>49</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>154</v>
@@ -2835,14 +2913,11 @@
       <c r="B27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J27" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="L27" t="s">
-        <v>298</v>
+      <c r="J27" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>223</v>
@@ -2858,14 +2933,14 @@
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>328</v>
+      <c r="J28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L28" t="s">
+        <v>298</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>251</v>
@@ -2881,11 +2956,11 @@
       <c r="B29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>325</v>
+      <c r="J29" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>250</v>
       </c>
       <c r="L29" s="13" t="s">
         <v>328</v>
@@ -2902,10 +2977,13 @@
         <v>116</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="18">
@@ -2915,11 +2993,11 @@
       <c r="B31" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>73</v>
+      <c r="J31" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="18">
@@ -2929,11 +3007,14 @@
       <c r="B32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>242</v>
+      <c r="J32" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="18">
@@ -2943,92 +3024,111 @@
       <c r="B33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15">
+      <c r="J34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="16.2">
+      <c r="J35" t="s">
         <v>89</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16.2">
-      <c r="J34" s="3" t="s">
+    <row r="36" spans="1:13" ht="16.2">
+      <c r="J36" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L36" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.6">
-      <c r="J35" s="9" t="s">
+    <row r="37" spans="1:13" ht="15.6">
+      <c r="J37" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K37" s="9" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="18">
-      <c r="J36" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="18">
-      <c r="J37" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="18">
       <c r="J38" s="1" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="18">
       <c r="J39" s="1" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="18">
       <c r="J40" s="1" t="s">
-        <v>315</v>
+        <v>123</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>316</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="18">
       <c r="J41" s="1" t="s">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="L41" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>335</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="18">
       <c r="J42" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="18">
+      <c r="J43" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L43" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="18">
+      <c r="J44" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>333</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/時間（じかん）.xlsx
+++ b/時間（じかん）.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBF5BE0-0444-4DAF-BBFA-B037E42B97D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07ED3136-ED4B-49D6-A5D1-94AA9800DF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="基礎（きそ）" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="期日（きじつ）" sheetId="3" r:id="rId3"/>
     <sheet name="連休（れんきゅ）" sheetId="2" r:id="rId4"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="394">
   <si>
     <t>明日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,14 +469,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>あす</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明日香、飛鳥｜あすか</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>よっか</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -538,10 +530,6 @@
   </si>
   <si>
     <t>ちとせ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（千年）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1764,6 +1752,214 @@
       </rPr>
       <t>经常）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ついたち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みいか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なのか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ようか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ここのか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二十日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はつか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二十四日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にじゅうよっか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十四日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうよっか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月曜日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>げつようび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火曜日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かようび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水曜日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すいようび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木曜日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もくようび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きんようび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金曜日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土曜日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どようび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日曜日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にちようび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いちげつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にがつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんがつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しがつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごがつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろくがつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しちがつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はちがつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうがつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうがつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次の日｜つぎのひ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2229,906 +2425,1072 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18">
-      <c r="J1" s="1" t="s">
+    <row r="1" spans="1:18" ht="18">
+      <c r="L1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="18">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18" ht="18">
+      <c r="A2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="18">
+      <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="18">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="19.2" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="18">
+      <c r="A6" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="18">
+      <c r="A7" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="18">
+      <c r="A8" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="L8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="18">
+      <c r="A9" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="18">
+      <c r="A10" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="18">
+      <c r="A11" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="18">
+      <c r="A12" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="18">
+      <c r="A13" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="18">
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>161</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="18">
+      <c r="A15" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="H15" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="18">
+      <c r="A16" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="18">
+      <c r="A17" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="18">
+      <c r="A18" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="18">
+      <c r="A19" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="18">
+      <c r="A20" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="18">
+      <c r="A21" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="18">
+      <c r="D22" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="18">
+      <c r="A23" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="18">
+      <c r="A24" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="18">
+      <c r="A25" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="18">
+      <c r="A26" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="18">
+      <c r="A27" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="18">
+      <c r="A28" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N28" t="s">
+        <v>295</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="18">
+      <c r="A29" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="18">
+      <c r="A30" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="18">
+      <c r="A31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="18">
+      <c r="A32" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="12:15" ht="18">
+      <c r="L33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="12:15" ht="15">
+      <c r="L34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="12:15" ht="16.2">
+      <c r="L35" t="s">
+        <v>89</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="12:15" ht="16.2">
+      <c r="L36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N36" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="12:15" ht="15.6">
+      <c r="L37" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="12:15" ht="18">
+      <c r="L38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="12:15" ht="18">
+      <c r="L39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="12:15" ht="18">
+      <c r="L40" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="18">
-      <c r="A3" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="18">
-      <c r="A4" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="19.2" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="18">
-      <c r="A6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="18">
-      <c r="A7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="18">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="18">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="18">
-      <c r="A10" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="18">
-      <c r="A11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="18">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="18">
-      <c r="B13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="18">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" t="s">
-        <v>164</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="18">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="F15" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="18">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="J16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N16" s="1" t="s">
+    </row>
+    <row r="41" spans="12:15" ht="18">
+      <c r="L41" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="12:15" ht="18">
+      <c r="L42" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M42" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="O16" s="1" t="s">
+    </row>
+    <row r="43" spans="12:15" ht="18">
+      <c r="L43" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="18">
-      <c r="A17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="18">
-      <c r="A18" s="1" t="s">
+      <c r="M43" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44" spans="12:15" ht="18">
+      <c r="L44" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="N44" s="15" t="s">
         <v>331</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="18">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="18">
-      <c r="A20" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="18">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="18">
-      <c r="A22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="18">
-      <c r="A23" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="18">
-      <c r="A24" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="L24" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="18">
-      <c r="A25" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="18">
-      <c r="A26" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="18">
-      <c r="A27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="18">
-      <c r="A28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="L28" t="s">
-        <v>298</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="O28" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="18">
-      <c r="A29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="18">
-      <c r="A30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" t="s">
-        <v>116</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="18">
-      <c r="A31" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="18">
-      <c r="A32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="L32" s="17" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="18">
-      <c r="A33" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15">
-      <c r="J34" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="16.2">
-      <c r="J35" t="s">
-        <v>89</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="16.2">
-      <c r="J36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L36" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.6">
-      <c r="J37" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="18">
-      <c r="J38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="18">
-      <c r="J39" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="18">
-      <c r="J40" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="18">
-      <c r="J41" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="18">
-      <c r="J42" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="18">
-      <c r="J43" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="L43" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="18">
-      <c r="J44" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -3149,61 +3511,61 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18">
       <c r="A2" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18">
       <c r="A4" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="18">
       <c r="A5" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3249,18 +3611,18 @@
     </row>
     <row r="4" spans="1:5" ht="18">
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18">
       <c r="A5" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C5" s="5">
         <v>11293</v>
@@ -3268,48 +3630,48 @@
     </row>
     <row r="6" spans="1:5" ht="18">
       <c r="A6" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18">
       <c r="A7" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18">
       <c r="A8" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
       <c r="A9" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
       <c r="A10" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3333,21 +3695,21 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18">
       <c r="A2" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3368,18 +3730,18 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18">
       <c r="A3" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3405,136 +3767,136 @@
   <sheetData>
     <row r="2" spans="1:8" ht="18">
       <c r="A2" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18">
       <c r="A3" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18">
       <c r="A5" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18">
       <c r="A6" s="10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18">
       <c r="A7" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18">
       <c r="A8" s="10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/時間（じかん）.xlsx
+++ b/時間（じかん）.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07ED3136-ED4B-49D6-A5D1-94AA9800DF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4C90A9-7326-4C93-8797-C01C268D4535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基礎（きそ）" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="期日（きじつ）" sheetId="3" r:id="rId3"/>
-    <sheet name="連休（れんきゅ）" sheetId="2" r:id="rId4"/>
-    <sheet name="古代（こだい）" sheetId="5" r:id="rId5"/>
-    <sheet name="星座（せいざ）" sheetId="6" r:id="rId6"/>
+    <sheet name="古代（こだい）" sheetId="5" r:id="rId4"/>
+    <sheet name="星座（せいざ）" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="399">
   <si>
     <t>明日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,14 +226,6 @@
   </si>
   <si>
     <t>ゆうがた</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>～がつ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>～月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1960,6 +1951,53 @@
   </si>
   <si>
     <t>次の日｜つぎのひ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正月休み</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうがつやすみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 春节）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がんたん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春節</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅんせつ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2427,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2441,24 +2479,24 @@
   <sheetData>
     <row r="1" spans="1:18" ht="18">
       <c r="L1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="18">
       <c r="A2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -2467,54 +2505,54 @@
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="L2" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="18">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>30</v>
@@ -2525,16 +2563,16 @@
     </row>
     <row r="4" spans="1:18" ht="18">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>44</v>
@@ -2543,13 +2581,13 @@
         <v>43</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>32</v>
@@ -2560,10 +2598,10 @@
     </row>
     <row r="5" spans="1:18" ht="19.2" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -2572,77 +2610,77 @@
         <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18">
       <c r="A6" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H6" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="L6" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18">
       <c r="A7" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>41</v>
@@ -2651,21 +2689,21 @@
         <v>42</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18">
       <c r="A8" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -2674,30 +2712,30 @@
         <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="18">
       <c r="A9" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -2715,80 +2753,80 @@
         <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18">
       <c r="A10" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18">
       <c r="A11" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>34</v>
@@ -2797,15 +2835,15 @@
         <v>35</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18">
       <c r="A12" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
@@ -2820,24 +2858,24 @@
         <v>46</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18">
       <c r="A13" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>4</v>
@@ -2847,16 +2885,16 @@
       </c>
       <c r="F13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>36</v>
@@ -2865,7 +2903,7 @@
         <v>37</v>
       </c>
       <c r="R13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="18">
@@ -2883,30 +2921,30 @@
         <v>29</v>
       </c>
       <c r="J14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L14" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="P14" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="18">
       <c r="A15" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>38</v>
@@ -2916,91 +2954,91 @@
       </c>
       <c r="F15" s="1"/>
       <c r="H15" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18">
       <c r="A16" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="18">
       <c r="A17" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L17" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="P17" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="18">
       <c r="A18" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>23</v>
@@ -3009,53 +3047,53 @@
         <v>22</v>
       </c>
       <c r="L18" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="P18" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="18">
       <c r="A19" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="18">
       <c r="A20" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -3064,27 +3102,27 @@
         <v>14</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="18">
       <c r="A21" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>16</v>
@@ -3093,160 +3131,160 @@
         <v>17</v>
       </c>
       <c r="L21" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="P21" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="18">
       <c r="D22" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="18">
       <c r="A23" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="18">
       <c r="A24" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L24" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="N24" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="N24" s="17" t="s">
-        <v>338</v>
-      </c>
       <c r="P24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R24" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="18">
       <c r="A25" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="18">
       <c r="A26" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="18">
       <c r="A27" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>24</v>
@@ -3255,24 +3293,24 @@
         <v>25</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="18">
       <c r="A28" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>21</v>
@@ -3281,73 +3319,73 @@
         <v>18</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N28" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="18">
       <c r="A29" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="18">
       <c r="A30" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="18">
       <c r="A31" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>20</v>
@@ -3356,141 +3394,141 @@
         <v>19</v>
       </c>
       <c r="L31" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="M31" s="12" t="s">
         <v>324</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="18">
       <c r="A32" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L32" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="N32" s="17" t="s">
         <v>339</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="N32" s="17" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="33" spans="12:15" ht="18">
       <c r="L33" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="12:15" ht="15">
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="12:15" ht="16.2">
       <c r="L35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="12:15" ht="16.2">
       <c r="L36" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N36" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="12:15" ht="15.6">
       <c r="L37" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="12:15" ht="18">
       <c r="L38" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="12:15" ht="18">
       <c r="L39" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="12:15" ht="18">
       <c r="L40" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="12:15" ht="18">
       <c r="L41" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="12:15" ht="18">
       <c r="L42" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="12:15" ht="18">
       <c r="L43" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N43" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="12:15" ht="18">
       <c r="L44" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N44" s="15" t="s">
         <v>329</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="N44" s="15" t="s">
-        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -3511,61 +3549,61 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18">
       <c r="A4" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="18">
       <c r="A5" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3576,10 +3614,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A8F9C5-5214-4FB3-827B-D5282C39EF11}">
-  <dimension ref="A2:E10"/>
+  <dimension ref="A2:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3587,91 +3625,109 @@
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="18">
+    <row r="2" spans="1:3" ht="18">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>392</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18">
-      <c r="D3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18">
-      <c r="D4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18">
+        <v>393</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18">
+      <c r="A3" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:3" ht="18">
+      <c r="A4" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:3" ht="18">
       <c r="A5" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" s="5">
         <v>11293</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18">
+    <row r="6" spans="1:3" ht="18">
       <c r="A6" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18">
       <c r="A8" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18">
       <c r="A9" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" t="s">
         <v>226</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18">
+    </row>
+    <row r="10" spans="1:3" ht="18">
       <c r="A10" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" t="s">
         <v>307</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C10" t="s">
-        <v>309</v>
+    </row>
+    <row r="11" spans="1:3" ht="18">
+      <c r="A11" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18">
+      <c r="A12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3681,44 +3737,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A782883D-5135-4502-8D13-6CAC05C9F520}">
-  <dimension ref="A2:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" ht="18">
-      <c r="A2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18">
-      <c r="A3" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B643A494-DD12-4D93-8462-39665FED12FA}">
   <dimension ref="A2:B3"/>
   <sheetViews>
@@ -3730,18 +3748,18 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18">
       <c r="A3" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3750,7 +3768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AD88E2-B795-4808-BA3A-9FF0B4DCC47E}">
   <dimension ref="A2:H8"/>
   <sheetViews>
@@ -3767,136 +3785,136 @@
   <sheetData>
     <row r="2" spans="1:8" ht="18">
       <c r="A2" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18">
       <c r="A3" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18">
       <c r="A5" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18">
       <c r="A6" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="F6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18">
       <c r="A7" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="F7" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18">
       <c r="A8" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/時間（じかん）.xlsx
+++ b/時間（じかん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4C90A9-7326-4C93-8797-C01C268D4535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D50ADD-028A-44AD-8F28-68C06926AFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基礎（きそ）" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="401">
   <si>
     <t>明日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1998,6 +1998,14 @@
   </si>
   <si>
     <t>しゅんせつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さくねん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2465,8 +2473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2534,10 +2542,10 @@
         <v>91</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>314</v>
+        <v>399</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>315</v>
+        <v>400</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>127</v>
@@ -2569,10 +2577,10 @@
         <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>44</v>
@@ -2604,10 +2612,10 @@
         <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>316</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>317</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>79</v>
@@ -2639,10 +2647,10 @@
         <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>241</v>
@@ -2677,10 +2685,10 @@
         <v>344</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>41</v>
@@ -2705,11 +2713,11 @@
       <c r="B8" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
+      <c r="D8" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>116</v>
@@ -2737,11 +2745,11 @@
       <c r="B9" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
+      <c r="D9" t="s">
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>40</v>
@@ -2773,10 +2781,10 @@
         <v>350</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>234</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>235</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>391</v>
@@ -2811,10 +2819,10 @@
         <v>356</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>59</v>
@@ -2845,11 +2853,11 @@
       <c r="B12" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1</v>
+      <c r="D12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="H12" t="s">
         <v>45</v>
@@ -2877,11 +2885,11 @@
       <c r="B13" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
       </c>
       <c r="F13" s="1"/>
       <c r="H13" s="1" t="s">
@@ -2908,10 +2916,10 @@
     </row>
     <row r="14" spans="1:18" ht="18">
       <c r="D14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F14" s="1"/>
       <c r="H14" t="s">
@@ -2947,10 +2955,10 @@
         <v>358</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1"/>
       <c r="H15" s="9" t="s">
@@ -2983,10 +2991,10 @@
         <v>360</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>53</v>
@@ -3012,10 +3020,10 @@
         <v>362</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>325</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>326</v>
+        <v>99</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>289</v>
@@ -3041,10 +3049,10 @@
         <v>364</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>325</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>22</v>
+        <v>326</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>331</v>
@@ -3070,10 +3078,10 @@
         <v>365</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>57</v>
@@ -3095,11 +3103,11 @@
       <c r="B20" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
+      <c r="D20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>142</v>
@@ -3124,11 +3132,11 @@
       <c r="B21" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>17</v>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>302</v>
@@ -3148,10 +3156,10 @@
     </row>
     <row r="22" spans="1:18" ht="18">
       <c r="D22" s="1" t="s">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>233</v>
+        <v>17</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>161</v>
@@ -3174,10 +3182,10 @@
         <v>372</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>51</v>
@@ -3203,10 +3211,10 @@
         <v>374</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L24" s="16" t="s">
         <v>334</v>
@@ -3235,10 +3243,10 @@
         <v>376</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L25" s="14" t="s">
         <v>49</v>
@@ -3261,10 +3269,10 @@
         <v>378</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>84</v>
+        <v>228</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>47</v>
@@ -3287,10 +3295,10 @@
         <v>380</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="L27" s="12" t="s">
         <v>206</v>
@@ -3313,10 +3321,10 @@
         <v>382</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L28" s="14" t="s">
         <v>74</v>
@@ -3342,10 +3350,10 @@
         <v>384</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="L29" s="9" t="s">
         <v>244</v>
@@ -3365,10 +3373,10 @@
         <v>386</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="L30" s="12" t="s">
         <v>319</v>
@@ -3388,10 +3396,10 @@
         <v>388</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="L31" s="12" t="s">
         <v>322</v>
@@ -3408,10 +3416,10 @@
         <v>390</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="L32" s="12" t="s">
         <v>337</v>
@@ -3423,7 +3431,13 @@
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="12:15" ht="18">
+    <row r="33" spans="4:15" ht="18">
+      <c r="D33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="L33" s="1" t="s">
         <v>72</v>
       </c>
@@ -3431,7 +3445,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="12:15" ht="15">
+    <row r="34" spans="4:15" ht="15">
       <c r="L34" s="7" t="s">
         <v>236</v>
       </c>
@@ -3439,7 +3453,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="12:15" ht="16.2">
+    <row r="35" spans="4:15" ht="16.2">
       <c r="L35" t="s">
         <v>87</v>
       </c>
@@ -3447,7 +3461,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="12:15" ht="16.2">
+    <row r="36" spans="4:15" ht="16.2">
       <c r="L36" s="3" t="s">
         <v>61</v>
       </c>
@@ -3458,7 +3472,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="37" spans="12:15" ht="15.6">
+    <row r="37" spans="4:15" ht="15.6">
       <c r="L37" s="9" t="s">
         <v>248</v>
       </c>
@@ -3466,7 +3480,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="12:15" ht="18">
+    <row r="38" spans="4:15" ht="18">
       <c r="L38" s="1" t="s">
         <v>86</v>
       </c>
@@ -3474,7 +3488,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="12:15" ht="18">
+    <row r="39" spans="4:15" ht="18">
       <c r="L39" s="1" t="s">
         <v>171</v>
       </c>
@@ -3482,7 +3496,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="12:15" ht="18">
+    <row r="40" spans="4:15" ht="18">
       <c r="L40" s="1" t="s">
         <v>118</v>
       </c>
@@ -3490,7 +3504,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="12:15" ht="18">
+    <row r="41" spans="4:15" ht="18">
       <c r="L41" s="1" t="s">
         <v>212</v>
       </c>
@@ -3498,7 +3512,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="12:15" ht="18">
+    <row r="42" spans="4:15" ht="18">
       <c r="L42" s="1" t="s">
         <v>310</v>
       </c>
@@ -3506,7 +3520,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="12:15" ht="18">
+    <row r="43" spans="4:15" ht="18">
       <c r="L43" s="1" t="s">
         <v>312</v>
       </c>
@@ -3520,7 +3534,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="44" spans="12:15" ht="18">
+    <row r="44" spans="4:15" ht="18">
       <c r="L44" s="1" t="s">
         <v>327</v>
       </c>
@@ -3616,8 +3630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A8F9C5-5214-4FB3-827B-D5282C39EF11}">
   <dimension ref="A2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/時間（じかん）.xlsx
+++ b/時間（じかん）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D50ADD-028A-44AD-8F28-68C06926AFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50A3E61-218A-47AC-B55D-D37252B9DA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="409">
   <si>
     <t>明日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2008,12 +2008,54 @@
     <t>さくねん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>正午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（有时）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大昔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おおむかし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>げんだい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現代社会｜げんだいしゃかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2143,6 +2185,14 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2471,10 +2521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2521,11 +2571,11 @@
       <c r="J2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>62</v>
+      <c r="L2" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>114</v>
@@ -2556,11 +2606,11 @@
       <c r="J3" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>68</v>
+      <c r="L3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>30</v>
@@ -2592,10 +2642,10 @@
         <v>82</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>220</v>
+        <v>69</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>221</v>
+        <v>68</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>32</v>
@@ -2627,10 +2677,10 @@
         <v>81</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>102</v>
@@ -2662,13 +2712,10 @@
         <v>243</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>299</v>
+        <v>169</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>301</v>
+        <v>170</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>173</v>
@@ -2697,13 +2744,13 @@
         <v>42</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>88</v>
+        <v>299</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>166</v>
+        <v>300</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18">
@@ -2720,16 +2767,19 @@
         <v>78</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>116</v>
+        <v>401</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>67</v>
+        <v>402</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>100</v>
@@ -2754,17 +2804,17 @@
       <c r="F9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H9" t="s">
-        <v>26</v>
+      <c r="H9" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>56</v>
+        <v>117</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>106</v>
@@ -2789,20 +2839,17 @@
       <c r="F10" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>130</v>
+      <c r="H10" t="s">
+        <v>26</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>321</v>
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>104</v>
@@ -2825,16 +2872,19 @@
         <v>235</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>165</v>
+        <v>136</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>34</v>
@@ -2859,17 +2909,17 @@
       <c r="E12" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H12" t="s">
-        <v>45</v>
+      <c r="H12" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>203</v>
+        <v>60</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>145</v>
@@ -2892,17 +2942,17 @@
         <v>1</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>151</v>
+      <c r="H13" t="s">
+        <v>45</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>36</v>
@@ -2922,23 +2972,17 @@
         <v>7</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="H14" t="s">
-        <v>28</v>
+      <c r="H14" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>296</v>
+        <v>222</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>298</v>
+        <v>223</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>131</v>
@@ -2961,26 +3005,32 @@
         <v>6</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="H15" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>240</v>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" t="s">
+        <v>159</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>298</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>108</v>
+        <v>406</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>109</v>
+        <v>407</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18">
@@ -2996,20 +3046,26 @@
       <c r="E16" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="H16" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>240</v>
+      </c>
       <c r="L16" s="1" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>54</v>
+        <v>295</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>70</v>
+        <v>298</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>308</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>309</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="18">
@@ -3026,19 +3082,19 @@
         <v>99</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>289</v>
+        <v>53</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>290</v>
+        <v>54</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>291</v>
+        <v>70</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>133</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>134</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="18">
@@ -3055,19 +3111,19 @@
         <v>326</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="18">
@@ -3084,16 +3140,19 @@
         <v>22</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>57</v>
+        <v>331</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>58</v>
+        <v>332</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="18">
@@ -3110,19 +3169,16 @@
         <v>140</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>304</v>
+        <v>58</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="18">
@@ -3139,19 +3195,19 @@
         <v>14</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>302</v>
+        <v>142</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>303</v>
+        <v>143</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>304</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="18">
@@ -3162,16 +3218,19 @@
         <v>17</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>161</v>
+        <v>302</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>160</v>
+        <v>303</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="18">
@@ -3188,16 +3247,16 @@
         <v>233</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>238</v>
@@ -3216,20 +3275,17 @@
       <c r="E24" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="L24" s="16" t="s">
-        <v>334</v>
+      <c r="L24" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="N24" s="17" t="s">
-        <v>336</v>
+        <v>52</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>124</v>
@@ -3248,17 +3304,20 @@
       <c r="E25" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="L25" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>50</v>
+      <c r="L25" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>336</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="18">
@@ -3274,17 +3333,20 @@
       <c r="E26" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="L26" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>48</v>
+      <c r="L26" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>403</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="18">
@@ -3300,17 +3362,17 @@
       <c r="E27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L27" s="12" t="s">
-        <v>206</v>
+      <c r="L27" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>219</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="18">
@@ -3326,20 +3388,17 @@
       <c r="E28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L28" s="14" t="s">
-        <v>74</v>
+      <c r="L28" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="N28" t="s">
-        <v>293</v>
+        <v>48</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q28" s="9" t="s">
-        <v>247</v>
+        <v>218</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="18">
@@ -3355,14 +3414,17 @@
       <c r="E29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="N29" s="13" t="s">
-        <v>323</v>
+      <c r="L29" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="18">
@@ -3378,14 +3440,14 @@
       <c r="E30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L30" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="N30" s="13" t="s">
-        <v>323</v>
+      <c r="L30" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N30" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="18">
@@ -3401,11 +3463,14 @@
       <c r="E31" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="L31" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>324</v>
+      <c r="L31" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="18">
@@ -3422,13 +3487,13 @@
         <v>19</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="N32" s="17" t="s">
-        <v>339</v>
+        <v>320</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="4:15" ht="18">
@@ -3438,97 +3503,97 @@
       <c r="E33" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="4:15" ht="18">
+      <c r="L34" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="N34" s="17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="4:15" ht="18">
+      <c r="L35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="4:15" ht="15">
-      <c r="L34" s="7" t="s">
+    <row r="36" spans="4:15" ht="15">
+      <c r="L36" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="M34" s="8" t="s">
+      <c r="M36" s="8" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="4:15" ht="16.2">
-      <c r="L35" t="s">
+    <row r="37" spans="4:15" ht="16.2">
+      <c r="L37" t="s">
         <v>87</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="4:15" ht="16.2">
-      <c r="L36" s="3" t="s">
+    <row r="38" spans="4:15" ht="16.2">
+      <c r="L38" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="M38" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N38" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="37" spans="4:15" ht="15.6">
-      <c r="L37" s="9" t="s">
+    <row r="39" spans="4:15" ht="15.6">
+      <c r="L39" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="M37" s="9" t="s">
+      <c r="M39" s="9" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="38" spans="4:15" ht="18">
-      <c r="L38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="4:15" ht="18">
-      <c r="L39" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="40" spans="4:15" ht="18">
       <c r="L40" s="1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="4:15" ht="18">
       <c r="L41" s="1" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="4:15" ht="18">
       <c r="L42" s="1" t="s">
-        <v>310</v>
+        <v>118</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>311</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="4:15" ht="18">
       <c r="L43" s="1" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="N43" s="15" t="s">
-        <v>329</v>
+        <v>213</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>330</v>
@@ -3536,12 +3601,31 @@
     </row>
     <row r="44" spans="4:15" ht="18">
       <c r="L44" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45" spans="4:15" ht="18">
+      <c r="L45" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="4:15" ht="18">
+      <c r="L46" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="N44" s="15" t="s">
+      <c r="N46" s="15" t="s">
         <v>329</v>
       </c>
     </row>

--- a/時間（じかん）.xlsx
+++ b/時間（じかん）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50A3E61-218A-47AC-B55D-D37252B9DA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763379A4-3459-4F4A-8433-7CD836C67162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="411">
   <si>
     <t>明日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2048,6 +2048,14 @@
   </si>
   <si>
     <t>現代社会｜げんだいしゃかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はんとし</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2523,8 +2531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3435,10 +3443,10 @@
         <v>386</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>94</v>
+        <v>409</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>95</v>
+        <v>410</v>
       </c>
       <c r="L30" s="14" t="s">
         <v>74</v>
@@ -3458,10 +3466,10 @@
         <v>388</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="L31" s="9" t="s">
         <v>244</v>
@@ -3481,10 +3489,10 @@
         <v>390</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="L32" s="12" t="s">
         <v>319</v>
@@ -3498,10 +3506,10 @@
     </row>
     <row r="33" spans="4:15" ht="18">
       <c r="D33" s="1" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="L33" s="12" t="s">
         <v>322</v>
@@ -3511,6 +3519,12 @@
       </c>
     </row>
     <row r="34" spans="4:15" ht="18">
+      <c r="D34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="L34" s="12" t="s">
         <v>337</v>
       </c>
@@ -3715,7 +3729,7 @@
   <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/時間（じかん）.xlsx
+++ b/時間（じかん）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763379A4-3459-4F4A-8433-7CD836C67162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4925C88-1948-4C5C-A192-4F3CA7938F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="417">
   <si>
     <t>明日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2056,6 +2056,71 @@
   </si>
   <si>
     <t>はんとし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すでに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（已</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>久しぶり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひさしぶり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>久违）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2529,10 +2594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2818,11 +2883,14 @@
       <c r="I9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L9" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>67</v>
+      <c r="L9" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>106</v>
@@ -2853,11 +2921,11 @@
       <c r="I10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>56</v>
+      <c r="L10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>104</v>
@@ -2885,14 +2953,11 @@
       <c r="I11" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L11" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>321</v>
+      <c r="L11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>34</v>
@@ -2924,10 +2989,13 @@
         <v>60</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>165</v>
+        <v>136</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>145</v>
@@ -2956,11 +3024,11 @@
       <c r="I13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>203</v>
+      <c r="L13" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>36</v>
@@ -2987,10 +3055,10 @@
         <v>152</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>131</v>
@@ -3023,13 +3091,10 @@
         <v>159</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>296</v>
+        <v>222</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>298</v>
+        <v>223</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>406</v>
@@ -3061,10 +3126,10 @@
         <v>240</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>298</v>
@@ -3090,13 +3155,13 @@
         <v>99</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>54</v>
+        <v>295</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>70</v>
+        <v>298</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>308</v>
@@ -3119,13 +3184,13 @@
         <v>326</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>289</v>
+        <v>53</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>290</v>
+        <v>54</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>291</v>
+        <v>70</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>133</v>
@@ -3148,13 +3213,13 @@
         <v>22</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>153</v>
@@ -3177,10 +3242,13 @@
         <v>140</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>57</v>
+        <v>331</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>58</v>
+        <v>332</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>155</v>
@@ -3203,13 +3271,10 @@
         <v>14</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>304</v>
+        <v>58</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>175</v>
@@ -3226,10 +3291,10 @@
         <v>17</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>302</v>
+        <v>142</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>303</v>
+        <v>143</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>304</v>
@@ -3255,10 +3320,13 @@
         <v>233</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>161</v>
+        <v>302</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>160</v>
+        <v>303</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>179</v>
@@ -3284,10 +3352,10 @@
         <v>230</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>120</v>
@@ -3312,14 +3380,11 @@
       <c r="E25" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="L25" s="16" t="s">
-        <v>334</v>
+      <c r="L25" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="N25" s="17" t="s">
-        <v>336</v>
+        <v>52</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>122</v>
@@ -3341,14 +3406,14 @@
       <c r="E26" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>294</v>
+      <c r="L26" s="16" t="s">
+        <v>334</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>403</v>
+        <v>336</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>137</v>
@@ -3370,11 +3435,14 @@
       <c r="E27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L27" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>50</v>
+      <c r="L27" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>403</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>149</v>
@@ -3396,11 +3464,11 @@
       <c r="E28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L28" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>48</v>
+      <c r="L28" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>218</v>
@@ -3423,10 +3491,10 @@
         <v>18</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>207</v>
+        <v>47</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>246</v>
@@ -3448,14 +3516,11 @@
       <c r="E30" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="L30" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="M30" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="N30" t="s">
-        <v>293</v>
+      <c r="L30" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="18">
@@ -3471,14 +3536,14 @@
       <c r="E31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L31" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="N31" s="13" t="s">
-        <v>323</v>
+      <c r="L31" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N31" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="18">
@@ -3495,13 +3560,13 @@
         <v>113</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="N32" s="13" t="s">
-        <v>323</v>
+        <v>338</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="4:15" ht="18">
@@ -3511,11 +3576,14 @@
       <c r="E33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L33" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="M33" s="12" t="s">
-        <v>324</v>
+      <c r="L33" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="4:15" ht="18">
@@ -3526,120 +3594,139 @@
         <v>111</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="N34" s="17" t="s">
-        <v>339</v>
+        <v>320</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="35" spans="4:15" ht="18">
-      <c r="L35" s="1" t="s">
+      <c r="L35" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36" spans="4:15" ht="18">
+      <c r="L36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="4:15" ht="15">
-      <c r="L36" s="7" t="s">
+    <row r="37" spans="4:15" ht="18">
+      <c r="L37" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="N37" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="38" spans="4:15" ht="15">
+      <c r="L38" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="M36" s="8" t="s">
+      <c r="M38" s="8" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="37" spans="4:15" ht="16.2">
-      <c r="L37" t="s">
+    <row r="39" spans="4:15" ht="16.2">
+      <c r="L39" t="s">
         <v>87</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="M39" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="4:15" ht="16.2">
-      <c r="L38" s="3" t="s">
+    <row r="40" spans="4:15" ht="16.2">
+      <c r="L40" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N40" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="39" spans="4:15" ht="15.6">
-      <c r="L39" s="9" t="s">
+    <row r="41" spans="4:15" ht="15.6">
+      <c r="L41" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="M39" s="9" t="s">
+      <c r="M41" s="9" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="40" spans="4:15" ht="18">
-      <c r="L40" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="4:15" ht="18">
-      <c r="L41" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="42" spans="4:15" ht="18">
       <c r="L42" s="1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="4:15" ht="18">
       <c r="L43" s="1" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>330</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="4:15" ht="18">
       <c r="L44" s="1" t="s">
-        <v>310</v>
+        <v>118</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>311</v>
+        <v>119</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="4:15" ht="18">
       <c r="L45" s="1" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="N45" s="15" t="s">
-        <v>329</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="4:15" ht="18">
       <c r="L46" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="4:15" ht="18">
+      <c r="L47" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="N47" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48" spans="4:15" ht="18">
+      <c r="L48" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M48" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="N46" s="15" t="s">
+      <c r="N48" s="15" t="s">
         <v>329</v>
       </c>
     </row>

--- a/時間（じかん）.xlsx
+++ b/時間（じかん）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4925C88-1948-4C5C-A192-4F3CA7938F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CB232F-1889-4EDC-B0DE-493EB6C2B119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="423">
   <si>
     <t>明日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1387,31 +1387,6 @@
   </si>
   <si>
     <t>さっそく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>（立刻，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>马</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>上）</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2123,12 +2098,60 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>こないだ</t>
+  </si>
+  <si>
+    <t>此間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（最近）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昼間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひるま</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昼間でも電気をつけなきゃならないんだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（立刻，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>马</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2268,6 +2291,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2289,7 +2325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2314,6 +2350,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2594,10 +2631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2624,10 +2661,10 @@
     </row>
     <row r="2" spans="1:18" ht="18">
       <c r="A2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -2645,10 +2682,10 @@
         <v>65</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>114</v>
@@ -2665,10 +2702,10 @@
         <v>91</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>127</v>
@@ -2700,10 +2737,10 @@
         <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>44</v>
@@ -2735,10 +2772,10 @@
         <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>79</v>
@@ -2764,7 +2801,7 @@
     </row>
     <row r="6" spans="1:18" ht="18">
       <c r="A6" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>52</v>
@@ -2775,14 +2812,14 @@
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>242</v>
+      <c r="H6" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>243</v>
+        <v>421</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>169</v>
@@ -2799,10 +2836,10 @@
     </row>
     <row r="7" spans="1:18" ht="18">
       <c r="A7" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>75</v>
@@ -2810,28 +2847,31 @@
       <c r="E7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>42</v>
+      <c r="H7" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18">
       <c r="A8" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>77</v>
@@ -2840,10 +2880,10 @@
         <v>78</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>401</v>
+        <v>41</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>402</v>
+        <v>42</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>88</v>
@@ -2863,10 +2903,10 @@
     </row>
     <row r="9" spans="1:18" ht="18">
       <c r="A9" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -2878,19 +2918,19 @@
         <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>116</v>
+        <v>400</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>117</v>
+        <v>401</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>106</v>
@@ -2901,10 +2941,10 @@
     </row>
     <row r="10" spans="1:18" ht="18">
       <c r="A10" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -2913,13 +2953,13 @@
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
+        <v>390</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>66</v>
@@ -2936,10 +2976,10 @@
     </row>
     <row r="11" spans="1:18" ht="18">
       <c r="A11" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>234</v>
@@ -2947,11 +2987,11 @@
       <c r="E11" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>130</v>
+      <c r="H11" t="s">
+        <v>26</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="L11" t="s">
         <v>55</v>
@@ -2971,10 +3011,10 @@
     </row>
     <row r="12" spans="1:18" ht="18">
       <c r="A12" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>125</v>
@@ -2983,10 +3023,10 @@
         <v>126</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>135</v>
@@ -2995,7 +3035,7 @@
         <v>136</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>145</v>
@@ -3006,10 +3046,10 @@
     </row>
     <row r="13" spans="1:18" ht="18">
       <c r="A13" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
@@ -3018,11 +3058,11 @@
         <v>1</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="H13" t="s">
-        <v>45</v>
+      <c r="H13" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>164</v>
@@ -3048,11 +3088,11 @@
         <v>7</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>151</v>
+      <c r="H14" t="s">
+        <v>45</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>202</v>
@@ -3069,10 +3109,10 @@
     </row>
     <row r="15" spans="1:18" ht="18">
       <c r="A15" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
@@ -3081,14 +3121,11 @@
         <v>6</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="H15" t="s">
-        <v>28</v>
+      <c r="H15" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>222</v>
@@ -3097,21 +3134,21 @@
         <v>223</v>
       </c>
       <c r="P15" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18">
       <c r="A16" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>38</v>
@@ -3119,20 +3156,23 @@
       <c r="E16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>240</v>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="s">
+        <v>159</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>108</v>
@@ -3143,10 +3183,10 @@
     </row>
     <row r="17" spans="1:18" ht="18">
       <c r="A17" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>98</v>
@@ -3154,34 +3194,40 @@
       <c r="E17" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="H17" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>240</v>
+      </c>
       <c r="L17" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="N17" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P17" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="18">
       <c r="A18" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="D18" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>53</v>
@@ -3201,10 +3247,10 @@
     </row>
     <row r="19" spans="1:18" ht="18">
       <c r="A19" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>23</v>
@@ -3212,14 +3258,14 @@
       <c r="E19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>291</v>
+      <c r="N19" s="18" t="s">
+        <v>422</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>153</v>
@@ -3230,10 +3276,10 @@
     </row>
     <row r="20" spans="1:18" ht="18">
       <c r="A20" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>139</v>
@@ -3242,13 +3288,13 @@
         <v>140</v>
       </c>
       <c r="L20" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>155</v>
@@ -3259,10 +3305,10 @@
     </row>
     <row r="21" spans="1:18" ht="18">
       <c r="A21" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -3297,7 +3343,7 @@
         <v>143</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>177</v>
@@ -3308,10 +3354,10 @@
     </row>
     <row r="23" spans="1:18" ht="18">
       <c r="A23" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>232</v>
@@ -3320,13 +3366,13 @@
         <v>233</v>
       </c>
       <c r="L23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>179</v>
@@ -3340,10 +3386,10 @@
     </row>
     <row r="24" spans="1:18" ht="18">
       <c r="A24" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>229</v>
@@ -3369,10 +3415,10 @@
     </row>
     <row r="25" spans="1:18" ht="18">
       <c r="A25" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>227</v>
@@ -3395,10 +3441,10 @@
     </row>
     <row r="26" spans="1:18" ht="18">
       <c r="A26" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>144</v>
@@ -3407,13 +3453,13 @@
         <v>228</v>
       </c>
       <c r="L26" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="17" t="s">
         <v>335</v>
-      </c>
-      <c r="N26" s="17" t="s">
-        <v>336</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>137</v>
@@ -3424,10 +3470,10 @@
     </row>
     <row r="27" spans="1:18" ht="18">
       <c r="A27" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>83</v>
@@ -3436,13 +3482,13 @@
         <v>84</v>
       </c>
       <c r="L27" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="N27" s="17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>149</v>
@@ -3453,10 +3499,10 @@
     </row>
     <row r="28" spans="1:18" ht="18">
       <c r="A28" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>24</v>
@@ -3479,10 +3525,10 @@
     </row>
     <row r="29" spans="1:18" ht="18">
       <c r="A29" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>21</v>
@@ -3505,16 +3551,16 @@
     </row>
     <row r="30" spans="1:18" ht="18">
       <c r="A30" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="D30" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="L30" s="12" t="s">
         <v>206</v>
@@ -3525,10 +3571,10 @@
     </row>
     <row r="31" spans="1:18" ht="18">
       <c r="A31" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>94</v>
@@ -3543,15 +3589,15 @@
         <v>73</v>
       </c>
       <c r="N31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="18">
       <c r="A32" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>112</v>
@@ -3560,13 +3606,13 @@
         <v>113</v>
       </c>
       <c r="L32" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="M32" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="M32" s="12" t="s">
+      <c r="N32" s="17" t="s">
         <v>338</v>
-      </c>
-      <c r="N32" s="17" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="33" spans="4:15" ht="18">
@@ -3583,7 +3629,7 @@
         <v>245</v>
       </c>
       <c r="N33" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="4:15" ht="18">
@@ -3594,21 +3640,21 @@
         <v>111</v>
       </c>
       <c r="L34" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="M34" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="M34" s="12" t="s">
-        <v>320</v>
-      </c>
       <c r="N34" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="4:15" ht="18">
       <c r="L35" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="4:15" ht="18">
@@ -3621,13 +3667,13 @@
     </row>
     <row r="37" spans="4:15" ht="18">
       <c r="L37" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="M37" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="N37" s="15" t="s">
         <v>415</v>
-      </c>
-      <c r="N37" s="15" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="38" spans="4:15" ht="15">
@@ -3654,7 +3700,7 @@
         <v>62</v>
       </c>
       <c r="N40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="4:15" ht="15.6">
@@ -3689,7 +3735,7 @@
         <v>119</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="4:15" ht="18">
@@ -3702,32 +3748,43 @@
     </row>
     <row r="46" spans="4:15" ht="18">
       <c r="L46" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="47" spans="4:15" ht="18">
       <c r="L47" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="M47" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="N47" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="4:15" ht="18">
       <c r="L48" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="M48" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="N48" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="N48" s="15" t="s">
-        <v>329</v>
+    </row>
+    <row r="49" spans="12:14" ht="18">
+      <c r="L49" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="M49" t="s">
+        <v>416</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -3826,30 +3883,30 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18">
       <c r="A2" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="17" t="s">
         <v>393</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:3" ht="18">
       <c r="A4" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="C4" s="17"/>
     </row>
@@ -3901,13 +3958,13 @@
     </row>
     <row r="10" spans="1:3" ht="18">
       <c r="A10" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" t="s">
         <v>306</v>
-      </c>
-      <c r="C10" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18">
@@ -4087,7 +4144,7 @@
         <v>270</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>272</v>

--- a/時間（じかん）.xlsx
+++ b/時間（じかん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CB232F-1889-4EDC-B0DE-493EB6C2B119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8670D150-7A14-4796-BED6-EB4F10C3230A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基礎（きそ）" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="425">
   <si>
     <t>明日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,22 +318,6 @@
   </si>
   <si>
     <t>以前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>临时）</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2143,6 +2127,30 @@
         <charset val="128"/>
       </rPr>
       <t>上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行き成り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いきなり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>突然）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2631,10 +2639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19:N19"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2647,24 +2655,24 @@
   <sheetData>
     <row r="1" spans="1:18" ht="18">
       <c r="L1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="18">
       <c r="A2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -2682,36 +2690,36 @@
         <v>65</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="P2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="18">
       <c r="A3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="J3" t="s">
         <v>65</v>
@@ -2731,16 +2739,16 @@
     </row>
     <row r="4" spans="1:18" ht="18">
       <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>44</v>
@@ -2749,7 +2757,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>69</v>
@@ -2766,42 +2774,42 @@
     </row>
     <row r="5" spans="1:18" ht="19.2" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="H5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="L5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18">
       <c r="A6" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>52</v>
@@ -2813,71 +2821,71 @@
         <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="L6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="P6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18">
       <c r="A7" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="H7" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="L7" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18">
       <c r="A8" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="D8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>41</v>
@@ -2886,27 +2894,27 @@
         <v>42</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="N8" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="18">
       <c r="A9" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -2918,33 +2926,33 @@
         <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="L9" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>412</v>
-      </c>
       <c r="P9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18">
       <c r="A10" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -2953,13 +2961,13 @@
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>66</v>
@@ -2968,24 +2976,24 @@
         <v>67</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18">
       <c r="A11" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="D11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
@@ -3006,50 +3014,50 @@
         <v>35</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18">
       <c r="A12" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="D12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L12" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="M12" s="12" t="s">
-        <v>136</v>
-      </c>
       <c r="N12" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18">
       <c r="A13" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
@@ -3065,10 +3073,10 @@
         <v>60</v>
       </c>
       <c r="L13" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="M13" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>165</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>36</v>
@@ -3077,7 +3085,7 @@
         <v>37</v>
       </c>
       <c r="R13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="18">
@@ -3095,24 +3103,24 @@
         <v>46</v>
       </c>
       <c r="L14" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="P14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="18">
       <c r="A15" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
@@ -3122,33 +3130,33 @@
       </c>
       <c r="F15" s="1"/>
       <c r="H15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="L15" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="P15" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18">
       <c r="A16" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>38</v>
@@ -3163,71 +3171,71 @@
         <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="P16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="18">
       <c r="A17" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="D17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H17" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>240</v>
-      </c>
       <c r="L17" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="N17" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P17" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="18">
       <c r="A18" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="D18" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>53</v>
@@ -3236,21 +3244,21 @@
         <v>54</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>70</v>
+        <v>424</v>
       </c>
       <c r="P18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="18">
       <c r="A19" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>23</v>
@@ -3258,57 +3266,57 @@
       <c r="E19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="N19" s="18" t="s">
+      <c r="L19" s="1" t="s">
         <v>422</v>
       </c>
+      <c r="M19" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>424</v>
+      </c>
       <c r="P19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="18">
       <c r="A20" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="D20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>332</v>
+      <c r="L20" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>421</v>
       </c>
       <c r="P20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="18">
       <c r="A21" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -3317,16 +3325,19 @@
         <v>14</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>57</v>
+        <v>329</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>58</v>
+        <v>330</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="P21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="18">
@@ -3337,172 +3348,169 @@
         <v>17</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>303</v>
+        <v>58</v>
       </c>
       <c r="P22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="18">
       <c r="A23" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="D23" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="L23" s="1" t="s">
-        <v>301</v>
+        <v>141</v>
       </c>
       <c r="M23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="P23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q23" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="R23" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="18">
       <c r="A24" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="D24" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="L24" s="1" t="s">
-        <v>161</v>
+        <v>300</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>160</v>
+        <v>301</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="P24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q24" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="R24" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="18">
       <c r="A25" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="P25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q25" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="18">
       <c r="A26" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>333</v>
+        <v>227</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="N26" s="17" t="s">
-        <v>335</v>
+        <v>52</v>
       </c>
       <c r="P26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="18">
       <c r="A27" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="D27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>293</v>
+      <c r="L27" s="16" t="s">
+        <v>332</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>402</v>
+        <v>334</v>
       </c>
       <c r="P27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q27" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="18">
       <c r="A28" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>24</v>
@@ -3510,25 +3518,28 @@
       <c r="E28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L28" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>50</v>
+      <c r="L28" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>401</v>
       </c>
       <c r="P28" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q28" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="18">
       <c r="A29" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>21</v>
@@ -3536,83 +3547,80 @@
       <c r="E29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>48</v>
+      <c r="L29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="P29" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q29" s="9" t="s">
         <v>246</v>
-      </c>
-      <c r="Q29" s="9" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="18">
       <c r="A30" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="D30" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="L30" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>207</v>
+        <v>47</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="18">
       <c r="A31" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="D31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="M31" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="N31" t="s">
-        <v>292</v>
+      <c r="L31" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="18">
       <c r="A32" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="D32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="N32" s="17" t="s">
-        <v>338</v>
+      <c r="L32" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N32" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="4:15" ht="18">
@@ -3622,169 +3630,180 @@
       <c r="E33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L33" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="N33" s="13" t="s">
-        <v>322</v>
+      <c r="L33" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="4:15" ht="18">
       <c r="D34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="M34" s="12" t="s">
-        <v>319</v>
+      <c r="L34" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>244</v>
       </c>
       <c r="N34" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="4:15" ht="18">
       <c r="L35" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="N35" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="M35" s="12" t="s">
-        <v>323</v>
-      </c>
     </row>
     <row r="36" spans="4:15" ht="18">
-      <c r="L36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M36" s="1" t="s">
+      <c r="L36" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="4:15" ht="18">
+      <c r="L37" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="4:15" ht="18">
-      <c r="L37" s="12" t="s">
+      <c r="M37" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="4:15" ht="18">
+      <c r="L38" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="N38" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="N37" s="15" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="38" spans="4:15" ht="15">
-      <c r="L38" s="7" t="s">
+    </row>
+    <row r="39" spans="4:15" ht="15">
+      <c r="L39" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M39" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="M38" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="39" spans="4:15" ht="16.2">
-      <c r="L39" t="s">
-        <v>87</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="40" spans="4:15" ht="16.2">
-      <c r="L40" s="3" t="s">
+      <c r="L40" t="s">
+        <v>86</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="4:15" ht="16.2">
+      <c r="L41" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="M41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N40" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="41" spans="4:15" ht="15.6">
-      <c r="L41" s="9" t="s">
+      <c r="N41" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="4:15" ht="15.6">
+      <c r="L42" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="M42" s="9" t="s">
         <v>248</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="42" spans="4:15" ht="18">
-      <c r="L42" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="43" spans="4:15" ht="18">
       <c r="L43" s="1" t="s">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>172</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="4:15" ht="18">
       <c r="L44" s="1" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>329</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="4:15" ht="18">
       <c r="L45" s="1" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>213</v>
+        <v>118</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="4:15" ht="18">
       <c r="L46" s="1" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>310</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="4:15" ht="18">
       <c r="L47" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="N47" s="15" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="4:15" ht="18">
       <c r="L48" s="1" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="M48" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="N48" s="15" t="s">
         <v>327</v>
-      </c>
-      <c r="N48" s="15" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="49" spans="12:14" ht="18">
       <c r="L49" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="N49" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="50" spans="12:14" ht="18">
+      <c r="L50" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="M50" t="s">
+        <v>415</v>
+      </c>
+      <c r="N50" s="6" t="s">
         <v>417</v>
-      </c>
-      <c r="M49" t="s">
-        <v>416</v>
-      </c>
-      <c r="N49" s="6" t="s">
-        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -3805,61 +3824,61 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18">
       <c r="A2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="H2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18">
       <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18">
       <c r="A4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="18">
       <c r="A5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3883,39 +3902,39 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18">
       <c r="A2" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="17" t="s">
         <v>392</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:3" ht="18">
       <c r="A4" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:3" ht="18">
       <c r="A5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C5" s="5">
         <v>11293</v>
@@ -3923,67 +3942,67 @@
     </row>
     <row r="6" spans="1:3" ht="18">
       <c r="A6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18">
       <c r="A7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18">
       <c r="A8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" t="s">
         <v>225</v>
-      </c>
-      <c r="C9" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18">
       <c r="A10" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" t="s">
         <v>305</v>
-      </c>
-      <c r="C10" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18">
       <c r="A11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" t="s">
         <v>198</v>
-      </c>
-      <c r="C11" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18">
       <c r="A12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4004,18 +4023,18 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18">
       <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18">
       <c r="A3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4041,136 +4060,136 @@
   <sheetData>
     <row r="2" spans="1:8" ht="18">
       <c r="A2" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18">
       <c r="A3" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18">
       <c r="A5" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18">
       <c r="A6" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="F6" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18">
       <c r="A7" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="F7" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18">
       <c r="A8" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/時間（じかん）.xlsx
+++ b/時間（じかん）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8670D150-7A14-4796-BED6-EB4F10C3230A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08D6DB2-2C38-4DF9-BAFA-395E9679316E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基礎（きそ）" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="430">
   <si>
     <t>明日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2154,12 +2154,41 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（经常）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はんげつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はんにち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2311,6 +2340,13 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2639,10 +2675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3290,10 +3326,10 @@
         <v>366</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>138</v>
+        <v>428</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>139</v>
+        <v>429</v>
       </c>
       <c r="L20" s="18" t="s">
         <v>288</v>
@@ -3318,11 +3354,11 @@
       <c r="B21" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
+      <c r="D21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>329</v>
@@ -3341,11 +3377,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="18">
-      <c r="D22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>17</v>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>57</v>
@@ -3368,10 +3404,10 @@
         <v>370</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>232</v>
+        <v>17</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>141</v>
@@ -3400,10 +3436,10 @@
         <v>372</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>300</v>
@@ -3432,10 +3468,10 @@
         <v>374</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>160</v>
@@ -3458,10 +3494,10 @@
         <v>376</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>51</v>
@@ -3484,10 +3520,10 @@
         <v>378</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>83</v>
+        <v>227</v>
       </c>
       <c r="L27" s="16" t="s">
         <v>332</v>
@@ -3513,10 +3549,10 @@
         <v>380</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>292</v>
@@ -3542,10 +3578,10 @@
         <v>382</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>21</v>
+        <v>426</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>18</v>
+        <v>427</v>
       </c>
       <c r="L29" s="14" t="s">
         <v>49</v>
@@ -3568,10 +3604,10 @@
         <v>384</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>407</v>
+        <v>24</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>408</v>
+        <v>25</v>
       </c>
       <c r="L30" s="12" t="s">
         <v>47</v>
@@ -3588,10 +3624,10 @@
         <v>386</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="L31" s="12" t="s">
         <v>205</v>
@@ -3608,10 +3644,10 @@
         <v>388</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>111</v>
+        <v>407</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>112</v>
+        <v>408</v>
       </c>
       <c r="L32" s="14" t="s">
         <v>73</v>
@@ -3625,10 +3661,10 @@
     </row>
     <row r="33" spans="4:15" ht="18">
       <c r="D33" s="1" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="L33" s="12" t="s">
         <v>335</v>
@@ -3642,10 +3678,10 @@
     </row>
     <row r="34" spans="4:15" ht="18">
       <c r="D34" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L34" s="9" t="s">
         <v>243</v>
@@ -3658,6 +3694,12 @@
       </c>
     </row>
     <row r="35" spans="4:15" ht="18">
+      <c r="D35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L35" s="12" t="s">
         <v>317</v>
       </c>
@@ -3669,6 +3711,12 @@
       </c>
     </row>
     <row r="36" spans="4:15" ht="18">
+      <c r="D36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="L36" s="12" t="s">
         <v>320</v>
       </c>
@@ -3804,6 +3852,17 @@
       </c>
       <c r="N50" s="6" t="s">
         <v>417</v>
+      </c>
+    </row>
+    <row r="51" spans="12:14" ht="18">
+      <c r="L51" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/時間（じかん）.xlsx
+++ b/時間（じかん）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08D6DB2-2C38-4DF9-BAFA-395E9679316E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8D433A-9941-427C-BCE6-A4E3D2B45DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="432">
   <si>
     <t>明日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2181,6 +2181,14 @@
   </si>
   <si>
     <t>はんにち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>間もなく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まもなく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2675,10 +2683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3360,11 +3368,11 @@
       <c r="E21" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>329</v>
+      <c r="L21" s="18" t="s">
+        <v>430</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>330</v>
+        <v>431</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>331</v>
@@ -3384,10 +3392,13 @@
         <v>14</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>57</v>
+        <v>329</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>58</v>
+        <v>330</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>176</v>
@@ -3410,13 +3421,10 @@
         <v>17</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>302</v>
+        <v>58</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>178</v>
@@ -3442,10 +3450,10 @@
         <v>232</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>300</v>
+        <v>141</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>301</v>
+        <v>142</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>302</v>
@@ -3474,10 +3482,13 @@
         <v>229</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>159</v>
+        <v>301</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>121</v>
@@ -3500,10 +3511,10 @@
         <v>230</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>136</v>
@@ -3525,14 +3536,11 @@
       <c r="E27" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="L27" s="16" t="s">
-        <v>332</v>
+      <c r="L27" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="N27" s="17" t="s">
-        <v>334</v>
+        <v>52</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>148</v>
@@ -3554,14 +3562,14 @@
       <c r="E28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>292</v>
+      <c r="L28" s="16" t="s">
+        <v>332</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>401</v>
+        <v>334</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>217</v>
@@ -3583,11 +3591,14 @@
       <c r="E29" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="L29" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>50</v>
+      <c r="L29" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>401</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>245</v>
@@ -3609,11 +3620,11 @@
       <c r="E30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L30" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M30" s="14" t="s">
-        <v>48</v>
+      <c r="L30" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="18">
@@ -3630,10 +3641,10 @@
         <v>18</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>206</v>
+        <v>47</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="18">
@@ -3649,14 +3660,11 @@
       <c r="E32" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="L32" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="M32" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="N32" t="s">
-        <v>291</v>
+      <c r="L32" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="4:15" ht="18">
@@ -3666,14 +3674,14 @@
       <c r="E33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L33" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="M33" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="N33" s="17" t="s">
-        <v>337</v>
+      <c r="L33" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N33" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="4:15" ht="18">
@@ -3683,14 +3691,14 @@
       <c r="E34" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L34" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="N34" s="13" t="s">
-        <v>321</v>
+      <c r="L34" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="N34" s="17" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="4:15" ht="18">
@@ -3700,11 +3708,11 @@
       <c r="E35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L35" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="M35" s="12" t="s">
-        <v>318</v>
+      <c r="L35" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>244</v>
       </c>
       <c r="N35" s="13" t="s">
         <v>321</v>
@@ -3718,88 +3726,91 @@
         <v>110</v>
       </c>
       <c r="L36" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37" spans="4:15" ht="18">
+      <c r="L37" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="M36" s="12" t="s">
+      <c r="M37" s="12" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="37" spans="4:15" ht="18">
-      <c r="L37" s="1" t="s">
+    <row r="38" spans="4:15" ht="18">
+      <c r="L38" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="4:15" ht="18">
-      <c r="L38" s="12" t="s">
+    <row r="39" spans="4:15" ht="18">
+      <c r="L39" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="N38" s="15" t="s">
+      <c r="N39" s="15" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="39" spans="4:15" ht="15">
-      <c r="L39" s="7" t="s">
+    <row r="40" spans="4:15" ht="15">
+      <c r="L40" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="M39" s="8" t="s">
+      <c r="M40" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="4:15" ht="16.2">
-      <c r="L40" t="s">
+    <row r="41" spans="4:15" ht="16.2">
+      <c r="L41" t="s">
         <v>86</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="M41" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="4:15" ht="16.2">
-      <c r="L41" s="3" t="s">
+    <row r="42" spans="4:15" ht="16.2">
+      <c r="L42" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="M42" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N42" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="42" spans="4:15" ht="15.6">
-      <c r="L42" s="9" t="s">
+    <row r="43" spans="4:15" ht="15.6">
+      <c r="L43" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="M42" s="9" t="s">
+      <c r="M43" s="9" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="43" spans="4:15" ht="18">
-      <c r="L43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="44" spans="4:15" ht="18">
       <c r="L44" s="1" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="4:15" ht="18">
       <c r="L45" s="1" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>328</v>
@@ -3807,37 +3818,34 @@
     </row>
     <row r="46" spans="4:15" ht="18">
       <c r="L46" s="1" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="4:15" ht="18">
       <c r="L47" s="1" t="s">
-        <v>308</v>
+        <v>211</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>309</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="4:15" ht="18">
       <c r="L48" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="N48" s="15" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="12:14" ht="18">
       <c r="L49" s="1" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="N49" s="15" t="s">
         <v>327</v>
@@ -3845,23 +3853,34 @@
     </row>
     <row r="50" spans="12:14" ht="18">
       <c r="L50" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="M50" t="s">
-        <v>415</v>
-      </c>
-      <c r="N50" s="6" t="s">
-        <v>417</v>
+        <v>325</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="N50" s="15" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="12:14" ht="18">
       <c r="L51" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="M51" t="s">
+        <v>415</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="52" spans="12:14" ht="18">
+      <c r="L52" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="M52" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="N51" s="6" t="s">
+      <c r="N52" s="6" t="s">
         <v>425</v>
       </c>
     </row>

--- a/時間（じかん）.xlsx
+++ b/時間（じかん）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8D433A-9941-427C-BCE6-A4E3D2B45DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3D88E7-D421-49F2-9E56-AA3C9A560E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="435">
   <si>
     <t>明日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2189,6 +2189,18 @@
   </si>
   <si>
     <t>まもなく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程なく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほどなく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（在此之后）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2683,10 +2695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3421,10 +3433,13 @@
         <v>17</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>57</v>
+        <v>432</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>58</v>
+        <v>433</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>178</v>
@@ -3450,13 +3465,10 @@
         <v>232</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>302</v>
+        <v>58</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>119</v>
@@ -3482,10 +3494,10 @@
         <v>229</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>300</v>
+        <v>141</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>301</v>
+        <v>142</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>302</v>
@@ -3511,10 +3523,13 @@
         <v>230</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>159</v>
+        <v>301</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>136</v>
@@ -3537,10 +3552,10 @@
         <v>227</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>148</v>
@@ -3562,14 +3577,11 @@
       <c r="E28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L28" s="16" t="s">
-        <v>332</v>
+      <c r="L28" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="N28" s="17" t="s">
-        <v>334</v>
+        <v>52</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>217</v>
@@ -3591,14 +3603,14 @@
       <c r="E29" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>292</v>
+      <c r="L29" s="16" t="s">
+        <v>332</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>401</v>
+        <v>334</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>245</v>
@@ -3620,11 +3632,14 @@
       <c r="E30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L30" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>50</v>
+      <c r="L30" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="N30" s="17" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="18">
@@ -3640,11 +3655,11 @@
       <c r="E31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M31" s="14" t="s">
-        <v>48</v>
+      <c r="L31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="18">
@@ -3661,10 +3676,10 @@
         <v>408</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>206</v>
+        <v>47</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="4:15" ht="18">
@@ -3674,14 +3689,11 @@
       <c r="E33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L33" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="M33" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="N33" t="s">
-        <v>291</v>
+      <c r="L33" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="4:15" ht="18">
@@ -3691,14 +3703,14 @@
       <c r="E34" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L34" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="M34" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="N34" s="17" t="s">
-        <v>337</v>
+      <c r="L34" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N34" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="4:15" ht="18">
@@ -3708,14 +3720,14 @@
       <c r="E35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L35" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="N35" s="13" t="s">
-        <v>321</v>
+      <c r="L35" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="4:15" ht="18">
@@ -3725,11 +3737,11 @@
       <c r="E36" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L36" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="M36" s="12" t="s">
-        <v>318</v>
+      <c r="L36" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>244</v>
       </c>
       <c r="N36" s="13" t="s">
         <v>321</v>
@@ -3737,80 +3749,83 @@
     </row>
     <row r="37" spans="4:15" ht="18">
       <c r="L37" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38" spans="4:15" ht="18">
+      <c r="L38" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="M37" s="12" t="s">
+      <c r="M38" s="12" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="38" spans="4:15" ht="18">
-      <c r="L38" s="1" t="s">
+    <row r="39" spans="4:15" ht="18">
+      <c r="L39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="4:15" ht="18">
-      <c r="L39" s="12" t="s">
+    <row r="40" spans="4:15" ht="18">
+      <c r="L40" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="N39" s="15" t="s">
+      <c r="N40" s="15" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="40" spans="4:15" ht="15">
-      <c r="L40" s="7" t="s">
+    <row r="41" spans="4:15" ht="15">
+      <c r="L41" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="M40" s="8" t="s">
+      <c r="M41" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="4:15" ht="16.2">
-      <c r="L41" t="s">
+    <row r="42" spans="4:15" ht="16.2">
+      <c r="L42" t="s">
         <v>86</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="M42" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="4:15" ht="16.2">
-      <c r="L42" s="3" t="s">
+    <row r="43" spans="4:15" ht="16.2">
+      <c r="L43" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N43" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="43" spans="4:15" ht="15.6">
-      <c r="L43" s="9" t="s">
+    <row r="44" spans="4:15" ht="15.6">
+      <c r="L44" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="M43" s="9" t="s">
+      <c r="M44" s="9" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="44" spans="4:15" ht="18">
-      <c r="L44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="45" spans="4:15" ht="18">
       <c r="L45" s="1" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>328</v>
@@ -3818,45 +3833,42 @@
     </row>
     <row r="46" spans="4:15" ht="18">
       <c r="L46" s="1" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="4:15" ht="18">
       <c r="L47" s="1" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="4:15" ht="18">
       <c r="L48" s="1" t="s">
-        <v>308</v>
+        <v>211</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>309</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="12:14" ht="18">
       <c r="L49" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="N49" s="15" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="12:14" ht="18">
       <c r="L50" s="1" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="N50" s="15" t="s">
         <v>327</v>
@@ -3864,23 +3876,34 @@
     </row>
     <row r="51" spans="12:14" ht="18">
       <c r="L51" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="M51" t="s">
-        <v>415</v>
-      </c>
-      <c r="N51" s="6" t="s">
-        <v>417</v>
+        <v>325</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="N51" s="15" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="12:14" ht="18">
       <c r="L52" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="M52" t="s">
+        <v>415</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="53" spans="12:14" ht="18">
+      <c r="L53" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="M53" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="N52" s="6" t="s">
+      <c r="N53" s="6" t="s">
         <v>425</v>
       </c>
     </row>

--- a/時間（じかん）.xlsx
+++ b/時間（じかん）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3D88E7-D421-49F2-9E56-AA3C9A560E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5163A5B-8605-4865-B008-9C10D8E41D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="440">
   <si>
     <t>明日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2201,6 +2201,38 @@
   </si>
   <si>
     <t>（在此之后）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これまで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>至今为止）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さきざき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（みらい）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2695,10 +2727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3025,11 +3057,11 @@
       <c r="I10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>67</v>
+      <c r="M10" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>103</v>
@@ -3057,11 +3089,11 @@
       <c r="I11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L11" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>56</v>
+      <c r="L11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>34</v>
@@ -3092,14 +3124,11 @@
       <c r="I12" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L12" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>319</v>
+      <c r="L12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>144</v>
@@ -3129,10 +3158,13 @@
         <v>60</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>164</v>
+        <v>135</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>319</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>36</v>
@@ -3158,11 +3190,11 @@
       <c r="I14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>202</v>
+      <c r="L14" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>130</v>
@@ -3192,10 +3224,10 @@
         <v>151</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>404</v>
@@ -3230,13 +3262,10 @@
         <v>158</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>294</v>
+        <v>221</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>296</v>
+        <v>222</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>107</v>
@@ -3265,10 +3294,10 @@
         <v>239</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>296</v>
@@ -3294,13 +3323,13 @@
         <v>324</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>53</v>
+        <v>292</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>54</v>
+        <v>293</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>424</v>
+        <v>296</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>132</v>
@@ -3323,19 +3352,22 @@
         <v>22</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>422</v>
+        <v>53</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>423</v>
+        <v>54</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>424</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>152</v>
+        <v>437</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>153</v>
+        <v>438</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="18">
@@ -3351,20 +3383,20 @@
       <c r="E20" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="L20" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="M20" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="N20" s="18" t="s">
-        <v>421</v>
+      <c r="L20" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>424</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="18">
@@ -3381,19 +3413,19 @@
         <v>139</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>331</v>
+        <v>288</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>421</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="18">
@@ -3403,20 +3435,20 @@
       <c r="E22" t="s">
         <v>14</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>329</v>
+      <c r="L22" s="18" t="s">
+        <v>430</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>330</v>
+        <v>431</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>331</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="18">
@@ -3433,22 +3465,19 @@
         <v>17</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>432</v>
+        <v>329</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>433</v>
+        <v>330</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>434</v>
+        <v>331</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>237</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="18">
@@ -3465,19 +3494,22 @@
         <v>232</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>57</v>
+        <v>432</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>58</v>
+        <v>433</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>123</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="18">
@@ -3494,19 +3526,19 @@
         <v>229</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>302</v>
+        <v>58</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="18">
@@ -3523,19 +3555,19 @@
         <v>230</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>300</v>
+        <v>141</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>301</v>
+        <v>142</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>302</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="18">
@@ -3552,16 +3584,19 @@
         <v>227</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>159</v>
+        <v>301</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="18">
@@ -3578,16 +3613,16 @@
         <v>83</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>218</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="18">
@@ -3603,20 +3638,17 @@
       <c r="E29" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="L29" s="16" t="s">
-        <v>332</v>
+      <c r="L29" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="N29" s="17" t="s">
-        <v>334</v>
+        <v>52</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q29" s="9" t="s">
-        <v>246</v>
+        <v>217</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="18">
@@ -3632,14 +3664,20 @@
       <c r="E30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>292</v>
+      <c r="L30" s="16" t="s">
+        <v>332</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="N30" s="17" t="s">
-        <v>401</v>
+        <v>334</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="18">
@@ -3655,11 +3693,14 @@
       <c r="E31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>50</v>
+      <c r="L31" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="18">
@@ -3675,11 +3716,11 @@
       <c r="E32" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="L32" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M32" s="14" t="s">
-        <v>48</v>
+      <c r="L32" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="4:15" ht="18">
@@ -3690,10 +3731,10 @@
         <v>94</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="M33" s="12" t="s">
-        <v>206</v>
+        <v>47</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="4:15" ht="18">
@@ -3703,14 +3744,11 @@
       <c r="E34" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L34" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="M34" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="N34" t="s">
-        <v>291</v>
+      <c r="L34" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="4:15" ht="18">
@@ -3720,14 +3758,14 @@
       <c r="E35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L35" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="M35" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="N35" s="17" t="s">
-        <v>337</v>
+      <c r="L35" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N35" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="4:15" ht="18">
@@ -3737,22 +3775,22 @@
       <c r="E36" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="L36" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="N36" s="17" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" spans="4:15" ht="18">
+      <c r="L37" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="M37" s="9" t="s">
         <v>244</v>
-      </c>
-      <c r="N36" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="37" spans="4:15" ht="18">
-      <c r="L37" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="M37" s="12" t="s">
-        <v>318</v>
       </c>
       <c r="N37" s="13" t="s">
         <v>321</v>
@@ -3760,72 +3798,75 @@
     </row>
     <row r="38" spans="4:15" ht="18">
       <c r="L38" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="4:15" ht="18">
+      <c r="L39" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="M38" s="12" t="s">
+      <c r="M39" s="12" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="39" spans="4:15" ht="18">
-      <c r="L39" s="1" t="s">
+    <row r="40" spans="4:15" ht="18">
+      <c r="L40" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="4:15" ht="18">
-      <c r="L40" s="12" t="s">
+    <row r="41" spans="4:15" ht="18">
+      <c r="L41" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M41" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="N40" s="15" t="s">
+      <c r="N41" s="15" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="41" spans="4:15" ht="15">
-      <c r="L41" s="7" t="s">
+    <row r="42" spans="4:15" ht="15">
+      <c r="L42" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="M41" s="8" t="s">
+      <c r="M42" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="4:15" ht="16.2">
-      <c r="L42" t="s">
+    <row r="43" spans="4:15" ht="16.2">
+      <c r="L43" t="s">
         <v>86</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="4:15" ht="16.2">
-      <c r="L43" s="3" t="s">
+    <row r="44" spans="4:15" ht="16.2">
+      <c r="L44" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="M44" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N44" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="44" spans="4:15" ht="15.6">
-      <c r="L44" s="9" t="s">
+    <row r="45" spans="4:15" ht="18">
+      <c r="L45" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="M44" s="9" t="s">
+      <c r="M45" s="9" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="45" spans="4:15" ht="18">
-      <c r="L45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>328</v>
@@ -3833,53 +3874,50 @@
     </row>
     <row r="46" spans="4:15" ht="18">
       <c r="L46" s="1" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="4:15" ht="18">
       <c r="L47" s="1" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="4:15" ht="18">
       <c r="L48" s="1" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="12:14" ht="18">
       <c r="L49" s="1" t="s">
-        <v>308</v>
+        <v>211</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>309</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="12:14" ht="18">
       <c r="L50" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="N50" s="15" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="12:14" ht="18">
       <c r="L51" s="1" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="N51" s="15" t="s">
         <v>327</v>
@@ -3887,23 +3925,34 @@
     </row>
     <row r="52" spans="12:14" ht="18">
       <c r="L52" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="M52" t="s">
-        <v>415</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>417</v>
+        <v>325</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="N52" s="15" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="12:14" ht="18">
       <c r="L53" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="M53" t="s">
+        <v>415</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="54" spans="12:14" ht="18">
+      <c r="L54" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="M54" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="N53" s="6" t="s">
+      <c r="N54" s="6" t="s">
         <v>425</v>
       </c>
     </row>

--- a/時間（じかん）.xlsx
+++ b/時間（じかん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5163A5B-8605-4865-B008-9C10D8E41D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B5D1D9-16E4-4802-850E-8A2F45FE8F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基礎（きそ）" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="442">
   <si>
     <t>明日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2233,6 +2233,36 @@
   </si>
   <si>
     <t>（みらい）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（不知不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>觉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2727,10 +2757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3525,11 +3555,11 @@
       <c r="E25" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="M25" s="1" t="s">
-        <v>58</v>
+        <v>440</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>119</v>
@@ -3555,10 +3585,10 @@
         <v>230</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>302</v>
@@ -3584,10 +3614,10 @@
         <v>227</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>300</v>
+        <v>141</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>301</v>
+        <v>142</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>302</v>
@@ -3613,10 +3643,10 @@
         <v>83</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>159</v>
+        <v>301</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>148</v>
@@ -3639,10 +3669,10 @@
         <v>427</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>217</v>
@@ -3664,11 +3694,11 @@
       <c r="E30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L30" s="16" t="s">
-        <v>332</v>
+      <c r="L30" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>333</v>
+        <v>52</v>
       </c>
       <c r="N30" s="17" t="s">
         <v>334</v>
@@ -3693,11 +3723,11 @@
       <c r="E31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>292</v>
+      <c r="L31" s="16" t="s">
+        <v>332</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="N31" s="17" t="s">
         <v>401</v>
@@ -3716,11 +3746,11 @@
       <c r="E32" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="L32" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>50</v>
+      <c r="L32" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="4:15" ht="18">
@@ -3730,11 +3760,11 @@
       <c r="E33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L33" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M33" s="14" t="s">
-        <v>48</v>
+      <c r="L33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="4:15" ht="18">
@@ -3745,10 +3775,10 @@
         <v>112</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="M34" s="12" t="s">
-        <v>206</v>
+        <v>47</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="4:15" ht="18">
@@ -3758,11 +3788,11 @@
       <c r="E35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L35" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="M35" s="14" t="s">
-        <v>72</v>
+      <c r="L35" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="N35" t="s">
         <v>291</v>
@@ -3775,33 +3805,33 @@
       <c r="E36" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L36" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="M36" s="12" t="s">
-        <v>336</v>
+      <c r="L36" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="N36" s="17" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="37" spans="4:15" ht="18">
-      <c r="L37" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>244</v>
+      <c r="L37" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>336</v>
       </c>
       <c r="N37" s="13" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="38" spans="4:15" ht="18">
-      <c r="L38" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>318</v>
+      <c r="L38" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>244</v>
       </c>
       <c r="N38" s="13" t="s">
         <v>321</v>
@@ -3809,115 +3839,115 @@
     </row>
     <row r="39" spans="4:15" ht="18">
       <c r="L39" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="4:15" ht="18">
+      <c r="L40" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="M39" s="12" t="s">
+      <c r="M40" s="12" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="40" spans="4:15" ht="18">
-      <c r="L40" s="1" t="s">
+    <row r="41" spans="4:15" ht="18">
+      <c r="L41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M41" s="1" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="4:15" ht="18">
-      <c r="L41" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="N41" s="15" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="42" spans="4:15" ht="15">
-      <c r="L42" s="7" t="s">
+    <row r="42" spans="4:15" ht="18">
+      <c r="L42" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="43" spans="4:15" ht="15">
+      <c r="L43" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="M42" s="8" t="s">
+      <c r="M43" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="4:15" ht="16.2">
-      <c r="L43" t="s">
+    <row r="44" spans="4:15" ht="16.2">
+      <c r="L44" t="s">
         <v>86</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="M44" s="2" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="4:15" ht="16.2">
-      <c r="L44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="N44" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="45" spans="4:15" ht="18">
-      <c r="L45" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>248</v>
+      <c r="L45" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="46" spans="4:15" ht="18">
-      <c r="L46" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>84</v>
+    <row r="46" spans="4:15" ht="15.6">
+      <c r="L46" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="4:15" ht="18">
       <c r="L47" s="1" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="4:15" ht="18">
       <c r="L48" s="1" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="12:14" ht="18">
       <c r="L49" s="1" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="12:14" ht="18">
       <c r="L50" s="1" t="s">
-        <v>308</v>
+        <v>211</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>309</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="12:14" ht="18">
       <c r="L51" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N51" s="15" t="s">
         <v>327</v>
@@ -3925,10 +3955,10 @@
     </row>
     <row r="52" spans="12:14" ht="18">
       <c r="L52" s="1" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="N52" s="15" t="s">
         <v>327</v>
@@ -3936,10 +3966,10 @@
     </row>
     <row r="53" spans="12:14" ht="18">
       <c r="L53" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="M53" t="s">
-        <v>415</v>
+        <v>325</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="N53" s="6" t="s">
         <v>417</v>
@@ -3947,13 +3977,21 @@
     </row>
     <row r="54" spans="12:14" ht="18">
       <c r="L54" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>336</v>
+        <v>416</v>
+      </c>
+      <c r="M54" t="s">
+        <v>415</v>
       </c>
       <c r="N54" s="6" t="s">
         <v>425</v>
+      </c>
+    </row>
+    <row r="55" spans="12:14" ht="18">
+      <c r="L55" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/時間（じかん）.xlsx
+++ b/時間（じかん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B5D1D9-16E4-4802-850E-8A2F45FE8F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F31427B-2030-4F5E-A144-6DD8579A6C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基礎（きそ）" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="448">
   <si>
     <t>明日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2263,6 +2263,30 @@
       </rPr>
       <t>）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>このあいだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（最近，前几天）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>増減</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぞうげん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2757,10 +2781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2948,10 +2972,13 @@
         <v>420</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>168</v>
+        <v>442</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>169</v>
+        <v>443</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>444</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>172</v>
@@ -2983,10 +3010,10 @@
         <v>242</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>297</v>
+        <v>168</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>298</v>
+        <v>169</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>299</v>
@@ -3012,10 +3039,10 @@
         <v>42</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>87</v>
+        <v>297</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>88</v>
+        <v>298</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>165</v>
@@ -3050,10 +3077,10 @@
         <v>400</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>409</v>
+        <v>87</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>410</v>
+        <v>88</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>411</v>
@@ -3087,8 +3114,11 @@
       <c r="I10" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="L10" s="1" t="s">
+        <v>409</v>
+      </c>
       <c r="M10" s="1" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>436</v>
@@ -3119,11 +3149,8 @@
       <c r="I11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>67</v>
+      <c r="M11" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>34</v>
@@ -3154,11 +3181,11 @@
       <c r="I12" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L12" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>56</v>
+      <c r="L12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>144</v>
@@ -3187,11 +3214,11 @@
       <c r="I13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>135</v>
+      <c r="L13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>319</v>
@@ -3221,10 +3248,10 @@
         <v>46</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>130</v>
@@ -3253,11 +3280,11 @@
       <c r="I15" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>202</v>
+      <c r="L15" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>404</v>
@@ -3292,10 +3319,10 @@
         <v>158</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>107</v>
@@ -3324,10 +3351,10 @@
         <v>239</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>294</v>
+        <v>221</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>296</v>
@@ -3353,10 +3380,10 @@
         <v>324</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>296</v>
@@ -3382,10 +3409,10 @@
         <v>22</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>53</v>
+        <v>292</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>54</v>
+        <v>293</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>424</v>
@@ -3414,10 +3441,10 @@
         <v>429</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>422</v>
+        <v>53</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>423</v>
+        <v>54</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>424</v>
@@ -3442,11 +3469,11 @@
       <c r="E21" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L21" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>289</v>
+      <c r="L21" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="N21" s="18" t="s">
         <v>421</v>
@@ -3466,10 +3493,10 @@
         <v>14</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>431</v>
+        <v>288</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>331</v>
@@ -3494,11 +3521,11 @@
       <c r="E23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>329</v>
+      <c r="L23" s="18" t="s">
+        <v>430</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>330</v>
+        <v>431</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>331</v>
@@ -3524,10 +3551,10 @@
         <v>232</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>432</v>
+        <v>329</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>433</v>
+        <v>330</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>434</v>
@@ -3555,8 +3582,11 @@
       <c r="E25" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="L25" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="M25" s="1" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>441</v>
@@ -3584,11 +3614,8 @@
       <c r="E26" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="M26" s="1" t="s">
-        <v>58</v>
+        <v>440</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>302</v>
@@ -3614,10 +3641,10 @@
         <v>227</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>302</v>
@@ -3643,10 +3670,10 @@
         <v>83</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>300</v>
+        <v>141</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>301</v>
+        <v>142</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>148</v>
@@ -3669,10 +3696,10 @@
         <v>427</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>159</v>
+        <v>301</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>217</v>
@@ -3695,10 +3722,10 @@
         <v>25</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="N30" s="17" t="s">
         <v>334</v>
@@ -3723,11 +3750,11 @@
       <c r="E31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="16" t="s">
-        <v>332</v>
+      <c r="L31" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>333</v>
+        <v>52</v>
       </c>
       <c r="N31" s="17" t="s">
         <v>401</v>
@@ -3746,11 +3773,11 @@
       <c r="E32" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>292</v>
+      <c r="L32" s="16" t="s">
+        <v>332</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="4:15" ht="18">
@@ -3760,11 +3787,12 @@
       <c r="E33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L33" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M33" s="12" t="s">
-        <v>50</v>
+      <c r="I33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="4:15" ht="18">
@@ -3774,11 +3802,11 @@
       <c r="E34" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L34" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M34" s="14" t="s">
-        <v>48</v>
+      <c r="L34" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="4:15" ht="18">
@@ -3789,10 +3817,10 @@
         <v>19</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="M35" s="12" t="s">
-        <v>206</v>
+        <v>47</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="N35" t="s">
         <v>291</v>
@@ -3805,149 +3833,149 @@
       <c r="E36" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L36" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="M36" s="14" t="s">
-        <v>72</v>
+      <c r="L36" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="N36" s="17" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="37" spans="4:15" ht="18">
-      <c r="L37" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="M37" s="12" t="s">
-        <v>336</v>
+      <c r="L37" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="N37" s="13" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="38" spans="4:15" ht="18">
-      <c r="L38" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>244</v>
+      <c r="L38" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>336</v>
       </c>
       <c r="N38" s="13" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="39" spans="4:15" ht="18">
-      <c r="L39" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="M39" s="12" t="s">
-        <v>318</v>
+    <row r="39" spans="4:15" ht="15.6">
+      <c r="L39" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="4:15" ht="18">
       <c r="L40" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="4:15" ht="18">
+      <c r="L41" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="M40" s="12" t="s">
+      <c r="M41" s="12" t="s">
         <v>322</v>
-      </c>
-    </row>
-    <row r="41" spans="4:15" ht="18">
-      <c r="L41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="N41" s="15" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="42" spans="4:15" ht="18">
-      <c r="L42" s="12" t="s">
+      <c r="L42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="4:15" ht="18">
+      <c r="L43" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="43" spans="4:15" ht="15">
-      <c r="L43" s="7" t="s">
+    <row r="44" spans="4:15" ht="15">
+      <c r="L44" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="M43" s="8" t="s">
+      <c r="M44" s="8" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="44" spans="4:15" ht="16.2">
-      <c r="L44" t="s">
-        <v>86</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="N44" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="45" spans="4:15" ht="18">
-      <c r="L45" s="3" t="s">
-        <v>61</v>
+      <c r="L45" t="s">
+        <v>86</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="46" spans="4:15" ht="15.6">
-      <c r="L46" s="9" t="s">
+    <row r="46" spans="4:15" ht="16.2">
+      <c r="L46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="4:15" ht="15.6">
+      <c r="L47" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="M46" s="9" t="s">
+      <c r="M47" s="9" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="47" spans="4:15" ht="18">
-      <c r="L47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="48" spans="4:15" ht="18">
       <c r="L48" s="1" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="12:14" ht="18">
       <c r="L49" s="1" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="12:14" ht="18">
       <c r="L50" s="1" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="12:14" ht="18">
       <c r="L51" s="1" t="s">
-        <v>308</v>
+        <v>211</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>309</v>
+        <v>212</v>
       </c>
       <c r="N51" s="15" t="s">
         <v>327</v>
@@ -3955,10 +3983,10 @@
     </row>
     <row r="52" spans="12:14" ht="18">
       <c r="L52" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N52" s="15" t="s">
         <v>327</v>
@@ -3966,10 +3994,10 @@
     </row>
     <row r="53" spans="12:14" ht="18">
       <c r="L53" s="1" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="N53" s="6" t="s">
         <v>417</v>
@@ -3977,10 +4005,10 @@
     </row>
     <row r="54" spans="12:14" ht="18">
       <c r="L54" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="M54" t="s">
-        <v>415</v>
+        <v>325</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="N54" s="6" t="s">
         <v>425</v>
@@ -3988,11 +4016,15 @@
     </row>
     <row r="55" spans="12:14" ht="18">
       <c r="L55" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>336</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M55" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="56" spans="12:14" ht="18">
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4002,10 +4034,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7788592-B07A-4335-8771-B0A0FE86052C}">
-  <dimension ref="A2:I5"/>
+  <dimension ref="A2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4067,6 +4099,19 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18">
+      <c r="A6" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18">
+      <c r="B7" s="1" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -4203,7 +4248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B643A494-DD12-4D93-8462-39665FED12FA}">
   <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/時間（じかん）.xlsx
+++ b/時間（じかん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F31427B-2030-4F5E-A144-6DD8579A6C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A89913-7434-477F-9B08-EE596537B461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基礎（きそ）" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="459">
   <si>
     <t>明日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -916,10 +916,6 @@
   </si>
   <si>
     <t>特急</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>とっきゅ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2286,8 +2282,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>へ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>とっきゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世紀｜しんせいき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新歴代｜しんれきだい</t>
+  </si>
+  <si>
+    <t>新時差｜しんじさ</t>
+  </si>
+  <si>
+    <t>新将来｜しんしょうらい</t>
+  </si>
+  <si>
+    <t>新未来｜しんみらい</t>
+  </si>
+  <si>
+    <t>新長期｜しんちょうき</t>
+  </si>
+  <si>
+    <t>新短期｜しんたんき</t>
+  </si>
+  <si>
+    <t>新前期｜しんぜんき</t>
+  </si>
+  <si>
+    <t>新後期｜しんこうき</t>
+  </si>
+  <si>
+    <t>新最古｜しんさいこ</t>
+  </si>
+  <si>
+    <t>新最近｜しんさいきん</t>
+  </si>
+  <si>
+    <t>新期間｜しんきかん</t>
   </si>
 </sst>
 </file>
@@ -2783,8 +2816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2792,6 +2825,7 @@
     <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2811,10 +2845,10 @@
     </row>
     <row r="2" spans="1:18" ht="18">
       <c r="A2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -2832,10 +2866,10 @@
         <v>65</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>113</v>
@@ -2852,10 +2886,10 @@
         <v>90</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>126</v>
@@ -2887,10 +2921,10 @@
         <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>44</v>
@@ -2922,10 +2956,10 @@
         <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>78</v>
@@ -2937,10 +2971,10 @@
         <v>80</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>101</v>
@@ -2951,7 +2985,7 @@
     </row>
     <row r="6" spans="1:18" ht="18">
       <c r="A6" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>52</v>
@@ -2963,22 +2997,22 @@
         <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="L6" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>172</v>
@@ -2989,10 +3023,10 @@
     </row>
     <row r="7" spans="1:18" ht="18">
       <c r="A7" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>74</v>
@@ -3001,13 +3035,13 @@
         <v>75</v>
       </c>
       <c r="H7" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>168</v>
@@ -3016,15 +3050,15 @@
         <v>169</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18">
       <c r="A8" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>76</v>
@@ -3039,10 +3073,10 @@
         <v>42</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>165</v>
@@ -3056,10 +3090,10 @@
     </row>
     <row r="9" spans="1:18" ht="18">
       <c r="A9" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -3071,10 +3105,10 @@
         <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>87</v>
@@ -3083,7 +3117,7 @@
         <v>88</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>105</v>
@@ -3094,10 +3128,10 @@
     </row>
     <row r="10" spans="1:18" ht="18">
       <c r="A10" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -3106,7 +3140,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>115</v>
@@ -3115,13 +3149,13 @@
         <v>116</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="N10" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>103</v>
@@ -3132,16 +3166,16 @@
     </row>
     <row r="11" spans="1:18" ht="18">
       <c r="A11" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="D11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
@@ -3150,7 +3184,7 @@
         <v>27</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>34</v>
@@ -3164,10 +3198,10 @@
     </row>
     <row r="12" spans="1:18" ht="18">
       <c r="A12" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>124</v>
@@ -3193,13 +3227,16 @@
       <c r="Q12" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="R12" s="1" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="18">
       <c r="A13" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
@@ -3221,7 +3258,7 @@
         <v>56</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>36</v>
@@ -3262,10 +3299,10 @@
     </row>
     <row r="15" spans="1:18" ht="18">
       <c r="A15" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
@@ -3287,21 +3324,21 @@
         <v>164</v>
       </c>
       <c r="P15" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18">
       <c r="A16" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>38</v>
@@ -3333,10 +3370,10 @@
     </row>
     <row r="17" spans="1:18" ht="18">
       <c r="A17" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>97</v>
@@ -3345,48 +3382,48 @@
         <v>98</v>
       </c>
       <c r="H17" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>239</v>
-      </c>
       <c r="L17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="N17" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P17" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="18">
       <c r="A18" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="D18" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="L18" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>132</v>
@@ -3397,10 +3434,10 @@
     </row>
     <row r="19" spans="1:18" ht="18">
       <c r="A19" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>23</v>
@@ -3409,36 +3446,36 @@
         <v>22</v>
       </c>
       <c r="L19" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="N19" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P19" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="18">
       <c r="A20" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="D20" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>53</v>
@@ -3447,7 +3484,7 @@
         <v>54</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>152</v>
@@ -3458,10 +3495,10 @@
     </row>
     <row r="21" spans="1:18" ht="18">
       <c r="A21" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>138</v>
@@ -3470,13 +3507,13 @@
         <v>139</v>
       </c>
       <c r="L21" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="N21" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>154</v>
@@ -3493,13 +3530,13 @@
         <v>14</v>
       </c>
       <c r="L22" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="M22" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="M22" s="18" t="s">
-        <v>289</v>
-      </c>
       <c r="N22" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>174</v>
@@ -3510,10 +3547,10 @@
     </row>
     <row r="23" spans="1:18" ht="18">
       <c r="A23" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>16</v>
@@ -3522,13 +3559,13 @@
         <v>17</v>
       </c>
       <c r="L23" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="N23" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>176</v>
@@ -3539,25 +3576,25 @@
     </row>
     <row r="24" spans="1:18" ht="18">
       <c r="A24" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="D24" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="L24" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="N24" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>178</v>
@@ -3566,30 +3603,30 @@
         <v>179</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="18">
       <c r="A25" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="D25" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="L25" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="N25" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>119</v>
@@ -3603,22 +3640,22 @@
     </row>
     <row r="26" spans="1:18" ht="18">
       <c r="A26" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>121</v>
@@ -3629,16 +3666,16 @@
     </row>
     <row r="27" spans="1:18" ht="18">
       <c r="A27" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>143</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>57</v>
@@ -3647,7 +3684,7 @@
         <v>58</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>136</v>
@@ -3658,10 +3695,10 @@
     </row>
     <row r="28" spans="1:18" ht="18">
       <c r="A28" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>82</v>
@@ -3684,36 +3721,36 @@
     </row>
     <row r="29" spans="1:18" ht="18">
       <c r="A29" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="D29" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="L29" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="P29" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q29" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="18">
       <c r="A30" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>24</v>
@@ -3728,21 +3765,21 @@
         <v>159</v>
       </c>
       <c r="N30" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P30" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q30" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="Q30" s="9" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="18">
       <c r="A31" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>21</v>
@@ -3757,27 +3794,27 @@
         <v>52</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="18">
       <c r="A32" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="D32" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="L32" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="33" spans="4:15" ht="18">
@@ -3789,10 +3826,10 @@
       </c>
       <c r="I33" s="1"/>
       <c r="L33" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="34" spans="4:15" ht="18">
@@ -3823,7 +3860,7 @@
         <v>48</v>
       </c>
       <c r="N35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="4:15" ht="18">
@@ -3840,7 +3877,7 @@
         <v>206</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="4:15" ht="18">
@@ -3851,45 +3888,45 @@
         <v>72</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="4:15" ht="18">
       <c r="L38" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="M38" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="M38" s="12" t="s">
-        <v>336</v>
-      </c>
       <c r="N38" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="4:15" ht="15.6">
       <c r="L39" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="M39" s="9" t="s">
         <v>243</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="40" spans="4:15" ht="18">
       <c r="L40" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="M40" s="12" t="s">
         <v>317</v>
-      </c>
-      <c r="M40" s="12" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="41" spans="4:15" ht="18">
       <c r="L41" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N41" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42" spans="4:15" ht="18">
@@ -3902,21 +3939,21 @@
     </row>
     <row r="43" spans="4:15" ht="18">
       <c r="L43" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="44" spans="4:15" ht="15">
       <c r="L44" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M44" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="M44" s="8" t="s">
-        <v>236</v>
-      </c>
       <c r="N44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="4:15" ht="18">
@@ -3927,7 +3964,7 @@
         <v>140</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="4:15" ht="16.2">
@@ -3940,10 +3977,10 @@
     </row>
     <row r="47" spans="4:15" ht="15.6">
       <c r="L47" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="M47" s="9" t="s">
         <v>247</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="48" spans="4:15" ht="18">
@@ -3978,48 +4015,48 @@
         <v>212</v>
       </c>
       <c r="N51" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="12:14" ht="18">
       <c r="L52" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="M52" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="M52" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="N52" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="12:14" ht="18">
       <c r="L53" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="M53" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="M53" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="N53" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="54" spans="12:14" ht="18">
       <c r="L54" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="M54" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="N54" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="55" spans="12:14" ht="18">
       <c r="L55" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="56" spans="12:14" ht="18">
@@ -4037,10 +4074,13 @@
   <dimension ref="A2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I2" activeCellId="1" sqref="E9 I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18">
       <c r="A2" s="1" t="s">
@@ -4061,7 +4101,7 @@
         <v>213</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>214</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18">
@@ -4078,10 +4118,10 @@
         <v>189</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18">
@@ -4103,16 +4143,14 @@
     </row>
     <row r="6" spans="1:9" ht="18">
       <c r="A6" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>446</v>
-      </c>
     </row>
     <row r="7" spans="1:9" ht="18">
-      <c r="B7" s="1" t="s">
-        <v>447</v>
-      </c>
+      <c r="B7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4135,30 +4173,30 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18">
       <c r="A2" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="17" t="s">
         <v>391</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:3" ht="18">
       <c r="A4" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="C4" s="17"/>
     </row>
@@ -4199,24 +4237,24 @@
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" t="s">
         <v>224</v>
-      </c>
-      <c r="C9" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18">
       <c r="A10" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" t="s">
         <v>304</v>
-      </c>
-      <c r="C10" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18">
@@ -4248,7 +4286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B643A494-DD12-4D93-8462-39665FED12FA}">
   <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4293,136 +4331,136 @@
   <sheetData>
     <row r="2" spans="1:8" ht="18">
       <c r="A2" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18">
       <c r="A3" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18">
       <c r="A5" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18">
       <c r="A6" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="F6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18">
       <c r="A7" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="F7" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18">
       <c r="A8" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>
